--- a/Generated Datasets Benchmark/Data Benchmark.xlsx
+++ b/Generated Datasets Benchmark/Data Benchmark.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xzhan176\Documents\GitHub\Network_Node_Selection\Generated Datasets Benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF001B02-509B-4468-A55A-B938157825B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8425E84A-4404-4FED-93DE-4721073408D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{95DAD813-F891-438B-9A1C-17A832C3DD3A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{95DAD813-F891-438B-9A1C-17A832C3DD3A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Karate" sheetId="1" r:id="rId1"/>
-    <sheet name="note" sheetId="2" r:id="rId2"/>
+    <sheet name="Notes" sheetId="2" r:id="rId1"/>
+    <sheet name="Karate" sheetId="1" r:id="rId2"/>
+    <sheet name="Reddit" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Reddit!$A$1:$D$554</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Lable_nzs</t>
   </si>
@@ -130,7 +134,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Minimizer selected node labled '1', Maximzier selected nodes labled '2'.
+      <t xml:space="preserve">Minimizer selected node labled '1', Maximzier selected nodes labled '2'. Selected by both Maximizer and Minimizer labled '3'(in zero-sum game). 
 </t>
     </r>
     <r>
@@ -672,11 +676,185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0731430-B7AF-49BD-ACA5-3D1233575E32}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7ED311-7AA7-4F70-853C-978851DA80BB}">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1810,176 +1988,7748 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0731430-B7AF-49BD-ACA5-3D1233575E32}">
-  <dimension ref="A1:G17"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3102C355-748A-4739-B101-60244BA4C0D8}">
+  <dimension ref="A1:D554"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.53125</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.44445000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.4</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.53569999999999995</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.4889</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="B12">
+        <v>0.48335</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.48149999999999998</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.5</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.5</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.5</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.5</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.48144999999999999</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.55554999999999999</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.5</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.5</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.5</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.56664999999999999</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.54544999999999999</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.5</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.5</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.5</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.51085000000000003</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0.5</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.54164999999999996</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0.5</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.5</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0.5</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0.5</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0.45455000000000001</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0.55554999999999999</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0.5</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0.5</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0.52</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0.5</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0.38890000000000002</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0.5</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.57145000000000001</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.5</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.45</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.8</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.5</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.5</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.5625</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0.5</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0.5</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0.5</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0.5</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.53125</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.45</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0.5</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0.5</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0.5</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0.45715</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0.5</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0.53125</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0.52324999999999999</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0.56664999999999999</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0.5</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0.5</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0.5625</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0.5</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0.5</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0.5</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0.53125</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0.5</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0.5</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0.5</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0.5</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0.55554999999999999</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0.5</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0.5</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0.4375</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0.5</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0.5</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>0.47915000000000002</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0.46429999999999999</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0.5</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0.5</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>0.55554999999999999</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>0.52939999999999998</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>0.5</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>0.5</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>0.63634999999999997</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>0.47620000000000001</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>0.33334999999999998</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>0.5</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>0.5</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>0.53844999999999998</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>0.45455000000000001</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>0.53569999999999995</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>0.47060000000000002</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>0.5</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>0.5</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>0.5</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>0.5</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>0.5</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>0.5</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>0.46155000000000002</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>0.46155000000000002</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>0.54544999999999999</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>0.5</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>0.5</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>0.5</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>0.5</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>0.58335000000000004</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>0.53334999999999999</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>0.5</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>0.5</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>0.53334999999999999</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>0.45650000000000002</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>0.5</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>0.5</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>0.5</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>0.45455000000000001</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>0.43335000000000001</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>0.52939999999999998</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>0.47225</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>0.5</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>0.5</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>0.5</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>0.375</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>0.5</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>0.41665000000000002</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>0.45</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>0.55554999999999999</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>0.53569999999999995</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>0.5</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>0.47560000000000002</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>0.5</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>0.4375</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>0.52939999999999998</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>0.5</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>0.5</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>0.52080000000000004</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>0.5</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>0.56664999999999999</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>0.46879999999999999</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>0.54169999999999996</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>0.5</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>0.5</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>0.5</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>0.5</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>0.47220000000000001</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>0.5</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>0.5</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>0.58335000000000004</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>0.5</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>0.5</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>0.5</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>0.4</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>0.44445000000000001</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>0.5</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>0.5</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>0.5</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>0.5</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>0.5</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>0.5</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>0.46429999999999999</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>0.5</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>0.45</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>0.5</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>0.5</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>0.5</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>0.46155000000000002</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>0.5</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>0.5</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>0.48075000000000001</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>0.4375</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>0.5</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>0.44445000000000001</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>0.5</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>0.5</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>0.5</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>0.5</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>0.48275000000000001</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>0.52129999999999999</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>0.5</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>0.46155000000000002</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>0.5</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>0.54544999999999999</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>0.5</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>0.5</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>0.5</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>0.48809999999999998</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>0.5</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>0.53334999999999999</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>0.46875</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>0.44735000000000003</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>0.5</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>0.5</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>0.5</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>0.52780000000000005</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>0.5</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>0.47220000000000001</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>0.5</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>0.45455000000000001</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>0.47825000000000001</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>0.5</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>0.5</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>0.52780000000000005</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>0.5</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>0.45455000000000001</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>0.5</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>0.45455000000000001</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>0.51470000000000005</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>0.53569999999999995</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>0.4375</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>0.44445000000000001</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>0.44445000000000001</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>0.5</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>0.5</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>0.52175000000000005</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>0.5</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>0.44445000000000001</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>0.51559999999999995</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>0.33334999999999998</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>0.53334999999999999</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>0.45834999999999998</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>0.5</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>0.53844999999999998</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>0.5</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>0.5</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>0.5</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>0.375</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>0.5</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>0.5</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>0.40910000000000002</v>
+      </c>
+      <c r="C247">
+        <v>2</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>0.5</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>0.5</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>0.5</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>0.5</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>0.5</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>0.45834999999999998</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>0.5625</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>0.5</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>0.5</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>0.5</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>0.48715000000000003</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>0.5625</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>0.5</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>0.5</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>0.5</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>0.5</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>0.5</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>0.45</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>0.54544999999999999</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>0.5</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>0.5</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>0.43335000000000001</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>0.5</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>0.5</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>0.44445000000000001</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>0.5</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>0.42854999999999999</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>0.4909</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>0.5</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>0.5</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>0.5</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>0.5</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>0.48649999999999999</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>0.5</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>0.5</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>0.46875</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>0.5</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>0.625</v>
+      </c>
+      <c r="C286">
+        <v>2</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>0.45834999999999998</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+      <c r="D287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>0.5</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>0.5</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>0.45</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+      <c r="D290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>0.5</v>
+      </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
+      <c r="D291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>0.5</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+      <c r="D292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>0.4</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+      <c r="D293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>0.55554999999999999</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>0.5</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>0.44445000000000001</v>
+      </c>
+      <c r="C296">
+        <v>0</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>0.45</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>0.45455000000000001</v>
+      </c>
+      <c r="C298">
+        <v>0</v>
+      </c>
+      <c r="D298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>0.5</v>
+      </c>
+      <c r="C299">
+        <v>0</v>
+      </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>0.5</v>
+      </c>
+      <c r="C300">
+        <v>0</v>
+      </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>0.5</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>0.5</v>
+      </c>
+      <c r="C302">
+        <v>0</v>
+      </c>
+      <c r="D302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>0.5</v>
+      </c>
+      <c r="C303">
+        <v>0</v>
+      </c>
+      <c r="D303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>0.5</v>
+      </c>
+      <c r="C304">
+        <v>0</v>
+      </c>
+      <c r="D304">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>0.46665000000000001</v>
+      </c>
+      <c r="C305">
+        <v>0</v>
+      </c>
+      <c r="D305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>0.58335000000000004</v>
+      </c>
+      <c r="C306">
+        <v>0</v>
+      </c>
+      <c r="D306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>0.5</v>
+      </c>
+      <c r="C307">
+        <v>0</v>
+      </c>
+      <c r="D307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>0.64285000000000003</v>
+      </c>
+      <c r="C308">
+        <v>0</v>
+      </c>
+      <c r="D308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>0.54764999999999997</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+      <c r="D309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>0.5</v>
+      </c>
+      <c r="C310">
+        <v>0</v>
+      </c>
+      <c r="D310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>0.5</v>
+      </c>
+      <c r="C311">
+        <v>0</v>
+      </c>
+      <c r="D311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>0.46429999999999999</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
+      <c r="D312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>0.48959999999999998</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+      <c r="D313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>0.53334999999999999</v>
+      </c>
+      <c r="C314">
+        <v>0</v>
+      </c>
+      <c r="D314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>0.53844999999999998</v>
+      </c>
+      <c r="C315">
+        <v>0</v>
+      </c>
+      <c r="D315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>0.5</v>
+      </c>
+      <c r="C316">
+        <v>0</v>
+      </c>
+      <c r="D316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C317">
+        <v>0</v>
+      </c>
+      <c r="D317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>0.5</v>
+      </c>
+      <c r="C318">
+        <v>0</v>
+      </c>
+      <c r="D318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>0.44445000000000001</v>
+      </c>
+      <c r="C319">
+        <v>0</v>
+      </c>
+      <c r="D319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>0.46875</v>
+      </c>
+      <c r="C320">
+        <v>0</v>
+      </c>
+      <c r="D320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>0.53844999999999998</v>
+      </c>
+      <c r="C321">
+        <v>0</v>
+      </c>
+      <c r="D321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>0.5</v>
+      </c>
+      <c r="C322">
+        <v>0</v>
+      </c>
+      <c r="D322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>0.5</v>
+      </c>
+      <c r="C323">
+        <v>0</v>
+      </c>
+      <c r="D323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>0.4</v>
+      </c>
+      <c r="C324">
+        <v>0</v>
+      </c>
+      <c r="D324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>0.5</v>
+      </c>
+      <c r="C325">
+        <v>0</v>
+      </c>
+      <c r="D325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>0.5</v>
+      </c>
+      <c r="C326">
+        <v>0</v>
+      </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>0.44445000000000001</v>
+      </c>
+      <c r="C327">
+        <v>0</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>0.58335000000000004</v>
+      </c>
+      <c r="C328">
+        <v>0</v>
+      </c>
+      <c r="D328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>0.46665000000000001</v>
+      </c>
+      <c r="C329">
+        <v>0</v>
+      </c>
+      <c r="D329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>0.55554999999999999</v>
+      </c>
+      <c r="C330">
+        <v>0</v>
+      </c>
+      <c r="D330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>0.5</v>
+      </c>
+      <c r="C331">
+        <v>0</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>0.5</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>0.5</v>
+      </c>
+      <c r="C333">
+        <v>0</v>
+      </c>
+      <c r="D333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>0.58335000000000004</v>
+      </c>
+      <c r="C334">
+        <v>0</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>0.54544999999999999</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
+      <c r="D335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>0.5</v>
+      </c>
+      <c r="C336">
+        <v>0</v>
+      </c>
+      <c r="D336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>0.5</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>0.48039999999999999</v>
+      </c>
+      <c r="C338">
+        <v>0</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>0.41665000000000002</v>
+      </c>
+      <c r="C340">
+        <v>0</v>
+      </c>
+      <c r="D340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>0.46665000000000001</v>
+      </c>
+      <c r="C341">
+        <v>0</v>
+      </c>
+      <c r="D341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>0.51515</v>
+      </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
+      <c r="D343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>0.5</v>
+      </c>
+      <c r="C344">
+        <v>0</v>
+      </c>
+      <c r="D344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>0.5</v>
+      </c>
+      <c r="C345">
+        <v>0</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>0.5</v>
+      </c>
+      <c r="C346">
+        <v>0</v>
+      </c>
+      <c r="D346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>0.5</v>
+      </c>
+      <c r="C347">
+        <v>0</v>
+      </c>
+      <c r="D347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>0.53029999999999999</v>
+      </c>
+      <c r="C348">
+        <v>0</v>
+      </c>
+      <c r="D348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>0.54164999999999996</v>
+      </c>
+      <c r="C349">
+        <v>0</v>
+      </c>
+      <c r="D349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>0.52</v>
+      </c>
+      <c r="C350">
+        <v>0</v>
+      </c>
+      <c r="D350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>0.5</v>
+      </c>
+      <c r="C351">
+        <v>0</v>
+      </c>
+      <c r="D351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>0.54649999999999999</v>
+      </c>
+      <c r="C352">
+        <v>0</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C353">
+        <v>0</v>
+      </c>
+      <c r="D353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>0.5</v>
+      </c>
+      <c r="C354">
+        <v>0</v>
+      </c>
+      <c r="D354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>0.5</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
+      <c r="D355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <v>0.5</v>
+      </c>
+      <c r="C356">
+        <v>0</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>0.44445000000000001</v>
+      </c>
+      <c r="C357">
+        <v>0</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C358">
+        <v>0</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>0.5</v>
+      </c>
+      <c r="C359">
+        <v>0</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>0.5</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>0.5</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>0.5</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+      <c r="D362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>0.5</v>
+      </c>
+      <c r="C363">
+        <v>0</v>
+      </c>
+      <c r="D363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>0.44119999999999998</v>
+      </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
+      <c r="D364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>0.5</v>
+      </c>
+      <c r="C365">
+        <v>0</v>
+      </c>
+      <c r="D365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>0.55554999999999999</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
+      <c r="D367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>0.5</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>0.5</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <v>0.53705000000000003</v>
+      </c>
+      <c r="C370">
+        <v>0</v>
+      </c>
+      <c r="D370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <v>0.5</v>
+      </c>
+      <c r="C371">
+        <v>0</v>
+      </c>
+      <c r="D371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <v>0.38890000000000002</v>
+      </c>
+      <c r="C372">
+        <v>0</v>
+      </c>
+      <c r="D372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>0.53844999999999998</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+      <c r="D373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>0.5</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+      <c r="D374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>0.56664999999999999</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+      <c r="D375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>0.52780000000000005</v>
+      </c>
+      <c r="C376">
+        <v>0</v>
+      </c>
+      <c r="D376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>0.5</v>
+      </c>
+      <c r="C377">
+        <v>0</v>
+      </c>
+      <c r="D377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>0.5</v>
+      </c>
+      <c r="C378">
+        <v>0</v>
+      </c>
+      <c r="D378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>0.45</v>
+      </c>
+      <c r="C379">
+        <v>0</v>
+      </c>
+      <c r="D379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>0.5</v>
+      </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
+      <c r="D380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>0.5</v>
+      </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
+      <c r="D381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>0.5</v>
+      </c>
+      <c r="C382">
+        <v>0</v>
+      </c>
+      <c r="D382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>0.5</v>
+      </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
+      <c r="D383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <v>0.5</v>
+      </c>
+      <c r="C384">
+        <v>0</v>
+      </c>
+      <c r="D384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>383</v>
+      </c>
+      <c r="B385">
+        <v>0.45834999999999998</v>
+      </c>
+      <c r="C385">
+        <v>0</v>
+      </c>
+      <c r="D385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>384</v>
+      </c>
+      <c r="B386">
+        <v>0.5</v>
+      </c>
+      <c r="C386">
+        <v>0</v>
+      </c>
+      <c r="D386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <v>0.45</v>
+      </c>
+      <c r="C387">
+        <v>0</v>
+      </c>
+      <c r="D387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <v>0.5</v>
+      </c>
+      <c r="C388">
+        <v>0</v>
+      </c>
+      <c r="D388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>387</v>
+      </c>
+      <c r="B389">
+        <v>0.5111</v>
+      </c>
+      <c r="C389">
+        <v>0</v>
+      </c>
+      <c r="D389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>388</v>
+      </c>
+      <c r="B390">
+        <v>0.5</v>
+      </c>
+      <c r="C390">
+        <v>0</v>
+      </c>
+      <c r="D390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>389</v>
+      </c>
+      <c r="B391">
+        <v>0.48780000000000001</v>
+      </c>
+      <c r="C391">
+        <v>0</v>
+      </c>
+      <c r="D391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>390</v>
+      </c>
+      <c r="B392">
+        <v>0.5</v>
+      </c>
+      <c r="C392">
+        <v>0</v>
+      </c>
+      <c r="D392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>391</v>
+      </c>
+      <c r="B393">
+        <v>0.45</v>
+      </c>
+      <c r="C393">
+        <v>0</v>
+      </c>
+      <c r="D393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>392</v>
+      </c>
+      <c r="B394">
+        <v>0.48914999999999997</v>
+      </c>
+      <c r="C394">
+        <v>0</v>
+      </c>
+      <c r="D394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>393</v>
+      </c>
+      <c r="B395">
+        <v>0.53569999999999995</v>
+      </c>
+      <c r="C395">
+        <v>0</v>
+      </c>
+      <c r="D395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>394</v>
+      </c>
+      <c r="B396">
+        <v>0.51924999999999999</v>
+      </c>
+      <c r="C396">
+        <v>0</v>
+      </c>
+      <c r="D396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>395</v>
+      </c>
+      <c r="B397">
+        <v>0.5</v>
+      </c>
+      <c r="C397">
+        <v>0</v>
+      </c>
+      <c r="D397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>396</v>
+      </c>
+      <c r="B398">
+        <v>0.5</v>
+      </c>
+      <c r="C398">
+        <v>0</v>
+      </c>
+      <c r="D398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>397</v>
+      </c>
+      <c r="B399">
+        <v>0.35715000000000002</v>
+      </c>
+      <c r="C399">
+        <v>0</v>
+      </c>
+      <c r="D399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>398</v>
+      </c>
+      <c r="B400">
+        <v>0.5</v>
+      </c>
+      <c r="C400">
+        <v>0</v>
+      </c>
+      <c r="D400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>399</v>
+      </c>
+      <c r="B401">
+        <v>0.5</v>
+      </c>
+      <c r="C401">
+        <v>0</v>
+      </c>
+      <c r="D401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>400</v>
+      </c>
+      <c r="B402">
+        <v>0.5</v>
+      </c>
+      <c r="C402">
+        <v>0</v>
+      </c>
+      <c r="D402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>401</v>
+      </c>
+      <c r="B403">
+        <v>0.5</v>
+      </c>
+      <c r="C403">
+        <v>0</v>
+      </c>
+      <c r="D403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>402</v>
+      </c>
+      <c r="B404">
+        <v>0.5</v>
+      </c>
+      <c r="C404">
+        <v>0</v>
+      </c>
+      <c r="D404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>403</v>
+      </c>
+      <c r="B405">
+        <v>0.5</v>
+      </c>
+      <c r="C405">
+        <v>0</v>
+      </c>
+      <c r="D405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>404</v>
+      </c>
+      <c r="B406">
+        <v>0.5</v>
+      </c>
+      <c r="C406">
+        <v>0</v>
+      </c>
+      <c r="D406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>405</v>
+      </c>
+      <c r="B407">
+        <v>0.5</v>
+      </c>
+      <c r="C407">
+        <v>0</v>
+      </c>
+      <c r="D407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>406</v>
+      </c>
+      <c r="B408">
+        <v>0.5</v>
+      </c>
+      <c r="C408">
+        <v>0</v>
+      </c>
+      <c r="D408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>407</v>
+      </c>
+      <c r="B409">
+        <v>0.5</v>
+      </c>
+      <c r="C409">
+        <v>0</v>
+      </c>
+      <c r="D409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>408</v>
+      </c>
+      <c r="B410">
+        <v>0.46665000000000001</v>
+      </c>
+      <c r="C410">
+        <v>0</v>
+      </c>
+      <c r="D410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>409</v>
+      </c>
+      <c r="B411">
+        <v>0.46155000000000002</v>
+      </c>
+      <c r="C411">
+        <v>0</v>
+      </c>
+      <c r="D411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>410</v>
+      </c>
+      <c r="B412">
+        <v>0.5</v>
+      </c>
+      <c r="C412">
+        <v>0</v>
+      </c>
+      <c r="D412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>411</v>
+      </c>
+      <c r="B413">
+        <v>0.5</v>
+      </c>
+      <c r="C413">
+        <v>0</v>
+      </c>
+      <c r="D413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>412</v>
+      </c>
+      <c r="B414">
+        <v>0.5</v>
+      </c>
+      <c r="C414">
+        <v>0</v>
+      </c>
+      <c r="D414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>413</v>
+      </c>
+      <c r="B415">
+        <v>0.46665000000000001</v>
+      </c>
+      <c r="C415">
+        <v>0</v>
+      </c>
+      <c r="D415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>414</v>
+      </c>
+      <c r="B416">
+        <v>0.44119999999999998</v>
+      </c>
+      <c r="C416">
+        <v>0</v>
+      </c>
+      <c r="D416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>415</v>
+      </c>
+      <c r="B417">
+        <v>0.5</v>
+      </c>
+      <c r="C417">
+        <v>0</v>
+      </c>
+      <c r="D417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>416</v>
+      </c>
+      <c r="B418">
+        <v>0.48914999999999997</v>
+      </c>
+      <c r="C418">
+        <v>0</v>
+      </c>
+      <c r="D418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>417</v>
+      </c>
+      <c r="B419">
+        <v>0.5</v>
+      </c>
+      <c r="C419">
+        <v>0</v>
+      </c>
+      <c r="D419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>418</v>
+      </c>
+      <c r="B420">
+        <v>0.5</v>
+      </c>
+      <c r="C420">
+        <v>0</v>
+      </c>
+      <c r="D420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>419</v>
+      </c>
+      <c r="B421">
+        <v>0.5</v>
+      </c>
+      <c r="C421">
+        <v>0</v>
+      </c>
+      <c r="D421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>420</v>
+      </c>
+      <c r="B422">
+        <v>0.5</v>
+      </c>
+      <c r="C422">
+        <v>0</v>
+      </c>
+      <c r="D422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>421</v>
+      </c>
+      <c r="B423">
+        <v>0.57145000000000001</v>
+      </c>
+      <c r="C423">
+        <v>0</v>
+      </c>
+      <c r="D423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>422</v>
+      </c>
+      <c r="B424">
+        <v>0.5</v>
+      </c>
+      <c r="C424">
+        <v>0</v>
+      </c>
+      <c r="D424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>423</v>
+      </c>
+      <c r="B425">
+        <v>0.53334999999999999</v>
+      </c>
+      <c r="C425">
+        <v>0</v>
+      </c>
+      <c r="D425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>424</v>
+      </c>
+      <c r="B426">
+        <v>0.5</v>
+      </c>
+      <c r="C426">
+        <v>0</v>
+      </c>
+      <c r="D426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>425</v>
+      </c>
+      <c r="B427">
+        <v>0.55554999999999999</v>
+      </c>
+      <c r="C427">
+        <v>0</v>
+      </c>
+      <c r="D427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>426</v>
+      </c>
+      <c r="B428">
+        <v>0.46</v>
+      </c>
+      <c r="C428">
+        <v>0</v>
+      </c>
+      <c r="D428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>427</v>
+      </c>
+      <c r="B429">
+        <v>0.5</v>
+      </c>
+      <c r="C429">
+        <v>0</v>
+      </c>
+      <c r="D429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>428</v>
+      </c>
+      <c r="B430">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C430">
+        <v>0</v>
+      </c>
+      <c r="D430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>429</v>
+      </c>
+      <c r="B431">
+        <v>0.6</v>
+      </c>
+      <c r="C431">
+        <v>0</v>
+      </c>
+      <c r="D431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>430</v>
+      </c>
+      <c r="B432">
+        <v>0.5</v>
+      </c>
+      <c r="C432">
+        <v>0</v>
+      </c>
+      <c r="D432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>431</v>
+      </c>
+      <c r="B433">
+        <v>0.5</v>
+      </c>
+      <c r="C433">
+        <v>0</v>
+      </c>
+      <c r="D433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>432</v>
+      </c>
+      <c r="B434">
+        <v>0.46155000000000002</v>
+      </c>
+      <c r="C434">
+        <v>0</v>
+      </c>
+      <c r="D434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>433</v>
+      </c>
+      <c r="B435">
+        <v>0.41665000000000002</v>
+      </c>
+      <c r="C435">
+        <v>0</v>
+      </c>
+      <c r="D435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>434</v>
+      </c>
+      <c r="B436">
+        <v>0.4</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+      <c r="D436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>435</v>
+      </c>
+      <c r="B437">
+        <v>0.5</v>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+      <c r="D437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>436</v>
+      </c>
+      <c r="B438">
+        <v>0.5</v>
+      </c>
+      <c r="C438">
+        <v>0</v>
+      </c>
+      <c r="D438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>437</v>
+      </c>
+      <c r="B439">
+        <v>0.45834999999999998</v>
+      </c>
+      <c r="C439">
+        <v>0</v>
+      </c>
+      <c r="D439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>438</v>
+      </c>
+      <c r="B440">
+        <v>0.4</v>
+      </c>
+      <c r="C440">
+        <v>0</v>
+      </c>
+      <c r="D440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>439</v>
+      </c>
+      <c r="B441">
+        <v>0.5</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
+      <c r="D441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>440</v>
+      </c>
+      <c r="B442">
+        <v>0.5</v>
+      </c>
+      <c r="C442">
+        <v>0</v>
+      </c>
+      <c r="D442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>441</v>
+      </c>
+      <c r="B443">
+        <v>0.53844999999999998</v>
+      </c>
+      <c r="C443">
+        <v>0</v>
+      </c>
+      <c r="D443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>442</v>
+      </c>
+      <c r="B444">
+        <v>0.52939999999999998</v>
+      </c>
+      <c r="C444">
+        <v>0</v>
+      </c>
+      <c r="D444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>443</v>
+      </c>
+      <c r="B445">
+        <v>0.56664999999999999</v>
+      </c>
+      <c r="C445">
+        <v>0</v>
+      </c>
+      <c r="D445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>444</v>
+      </c>
+      <c r="B446">
+        <v>0.5</v>
+      </c>
+      <c r="C446">
+        <v>0</v>
+      </c>
+      <c r="D446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>445</v>
+      </c>
+      <c r="B447">
+        <v>0.53334999999999999</v>
+      </c>
+      <c r="C447">
+        <v>0</v>
+      </c>
+      <c r="D447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>446</v>
+      </c>
+      <c r="B448">
+        <v>0.625</v>
+      </c>
+      <c r="C448">
+        <v>0</v>
+      </c>
+      <c r="D448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>447</v>
+      </c>
+      <c r="B449">
+        <v>0.42854999999999999</v>
+      </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
+      <c r="D449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>448</v>
+      </c>
+      <c r="B450">
+        <v>0.4375</v>
+      </c>
+      <c r="C450">
+        <v>0</v>
+      </c>
+      <c r="D450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>449</v>
+      </c>
+      <c r="B451">
+        <v>0.48864999999999997</v>
+      </c>
+      <c r="C451">
+        <v>0</v>
+      </c>
+      <c r="D451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>450</v>
+      </c>
+      <c r="B452">
+        <v>0.53569999999999995</v>
+      </c>
+      <c r="C452">
+        <v>0</v>
+      </c>
+      <c r="D452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>451</v>
+      </c>
+      <c r="B453">
+        <v>0.5</v>
+      </c>
+      <c r="C453">
+        <v>0</v>
+      </c>
+      <c r="D453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>452</v>
+      </c>
+      <c r="B454">
+        <v>0.5</v>
+      </c>
+      <c r="C454">
+        <v>0</v>
+      </c>
+      <c r="D454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>453</v>
+      </c>
+      <c r="B455">
+        <v>0.54544999999999999</v>
+      </c>
+      <c r="C455">
+        <v>0</v>
+      </c>
+      <c r="D455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>454</v>
+      </c>
+      <c r="B456">
+        <v>0.5</v>
+      </c>
+      <c r="C456">
+        <v>0</v>
+      </c>
+      <c r="D456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>455</v>
+      </c>
+      <c r="B457">
+        <v>0.41665000000000002</v>
+      </c>
+      <c r="C457">
+        <v>0</v>
+      </c>
+      <c r="D457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>456</v>
+      </c>
+      <c r="B458">
+        <v>0.51190000000000002</v>
+      </c>
+      <c r="C458">
+        <v>0</v>
+      </c>
+      <c r="D458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>457</v>
+      </c>
+      <c r="B459">
+        <v>0.5</v>
+      </c>
+      <c r="C459">
+        <v>0</v>
+      </c>
+      <c r="D459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>458</v>
+      </c>
+      <c r="B460">
+        <v>0.5</v>
+      </c>
+      <c r="C460">
+        <v>0</v>
+      </c>
+      <c r="D460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>459</v>
+      </c>
+      <c r="B461">
+        <v>0.5</v>
+      </c>
+      <c r="C461">
+        <v>0</v>
+      </c>
+      <c r="D461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>460</v>
+      </c>
+      <c r="B462">
+        <v>0.53844999999999998</v>
+      </c>
+      <c r="C462">
+        <v>0</v>
+      </c>
+      <c r="D462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>461</v>
+      </c>
+      <c r="B463">
+        <v>0.48215000000000002</v>
+      </c>
+      <c r="C463">
+        <v>0</v>
+      </c>
+      <c r="D463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>462</v>
+      </c>
+      <c r="B464">
+        <v>0.5</v>
+      </c>
+      <c r="C464">
+        <v>0</v>
+      </c>
+      <c r="D464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>463</v>
+      </c>
+      <c r="B465">
+        <v>0.52085000000000004</v>
+      </c>
+      <c r="C465">
+        <v>0</v>
+      </c>
+      <c r="D465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>464</v>
+      </c>
+      <c r="B466">
+        <v>0.45455000000000001</v>
+      </c>
+      <c r="C466">
+        <v>0</v>
+      </c>
+      <c r="D466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>465</v>
+      </c>
+      <c r="B467">
+        <v>0.53334999999999999</v>
+      </c>
+      <c r="C467">
+        <v>0</v>
+      </c>
+      <c r="D467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>466</v>
+      </c>
+      <c r="B468">
+        <v>0.5</v>
+      </c>
+      <c r="C468">
+        <v>0</v>
+      </c>
+      <c r="D468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>467</v>
+      </c>
+      <c r="B469">
+        <v>0.5</v>
+      </c>
+      <c r="C469">
+        <v>0</v>
+      </c>
+      <c r="D469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>468</v>
+      </c>
+      <c r="B470">
+        <v>0.5</v>
+      </c>
+      <c r="C470">
+        <v>0</v>
+      </c>
+      <c r="D470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>469</v>
+      </c>
+      <c r="B471">
+        <v>0.375</v>
+      </c>
+      <c r="C471">
+        <v>0</v>
+      </c>
+      <c r="D471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>470</v>
+      </c>
+      <c r="B472">
+        <v>0.5</v>
+      </c>
+      <c r="C472">
+        <v>0</v>
+      </c>
+      <c r="D472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>471</v>
+      </c>
+      <c r="B473">
+        <v>0.46155000000000002</v>
+      </c>
+      <c r="C473">
+        <v>0</v>
+      </c>
+      <c r="D473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>472</v>
+      </c>
+      <c r="B474">
+        <v>0.41665000000000002</v>
+      </c>
+      <c r="C474">
+        <v>0</v>
+      </c>
+      <c r="D474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>473</v>
+      </c>
+      <c r="B475">
+        <v>0.5</v>
+      </c>
+      <c r="C475">
+        <v>0</v>
+      </c>
+      <c r="D475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>474</v>
+      </c>
+      <c r="B476">
+        <v>0.625</v>
+      </c>
+      <c r="C476">
+        <v>0</v>
+      </c>
+      <c r="D476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>475</v>
+      </c>
+      <c r="B477">
+        <v>0.5</v>
+      </c>
+      <c r="C477">
+        <v>0</v>
+      </c>
+      <c r="D477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>476</v>
+      </c>
+      <c r="B478">
+        <v>0.51039999999999996</v>
+      </c>
+      <c r="C478">
+        <v>0</v>
+      </c>
+      <c r="D478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>477</v>
+      </c>
+      <c r="B479">
+        <v>0.5</v>
+      </c>
+      <c r="C479">
+        <v>0</v>
+      </c>
+      <c r="D479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>478</v>
+      </c>
+      <c r="B480">
+        <v>0.53844999999999998</v>
+      </c>
+      <c r="C480">
+        <v>0</v>
+      </c>
+      <c r="D480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>479</v>
+      </c>
+      <c r="B481">
+        <v>0.44445000000000001</v>
+      </c>
+      <c r="C481">
+        <v>0</v>
+      </c>
+      <c r="D481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>480</v>
+      </c>
+      <c r="B482">
+        <v>0.5</v>
+      </c>
+      <c r="C482">
+        <v>0</v>
+      </c>
+      <c r="D482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>481</v>
+      </c>
+      <c r="B483">
+        <v>0.5</v>
+      </c>
+      <c r="C483">
+        <v>1</v>
+      </c>
+      <c r="D483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>482</v>
+      </c>
+      <c r="B484">
+        <v>0.5</v>
+      </c>
+      <c r="C484">
+        <v>0</v>
+      </c>
+      <c r="D484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>483</v>
+      </c>
+      <c r="B485">
+        <v>0.5</v>
+      </c>
+      <c r="C485">
+        <v>0</v>
+      </c>
+      <c r="D485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>484</v>
+      </c>
+      <c r="B486">
+        <v>0.47370000000000001</v>
+      </c>
+      <c r="C486">
+        <v>0</v>
+      </c>
+      <c r="D486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>485</v>
+      </c>
+      <c r="B487">
+        <v>0.5</v>
+      </c>
+      <c r="C487">
+        <v>0</v>
+      </c>
+      <c r="D487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>486</v>
+      </c>
+      <c r="B488">
+        <v>0.5</v>
+      </c>
+      <c r="C488">
+        <v>0</v>
+      </c>
+      <c r="D488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>487</v>
+      </c>
+      <c r="B489">
+        <v>0.59375</v>
+      </c>
+      <c r="C489">
+        <v>0</v>
+      </c>
+      <c r="D489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>488</v>
+      </c>
+      <c r="B490">
+        <v>0.45455000000000001</v>
+      </c>
+      <c r="C490">
+        <v>0</v>
+      </c>
+      <c r="D490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>489</v>
+      </c>
+      <c r="B491">
+        <v>0.45455000000000001</v>
+      </c>
+      <c r="C491">
+        <v>0</v>
+      </c>
+      <c r="D491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>490</v>
+      </c>
+      <c r="B492">
+        <v>0.5</v>
+      </c>
+      <c r="C492">
+        <v>0</v>
+      </c>
+      <c r="D492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>491</v>
+      </c>
+      <c r="B493">
+        <v>0.55554999999999999</v>
+      </c>
+      <c r="C493">
+        <v>0</v>
+      </c>
+      <c r="D493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>492</v>
+      </c>
+      <c r="B494">
+        <v>0.4531</v>
+      </c>
+      <c r="C494">
+        <v>0</v>
+      </c>
+      <c r="D494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>493</v>
+      </c>
+      <c r="B495">
+        <v>0.5</v>
+      </c>
+      <c r="C495">
+        <v>0</v>
+      </c>
+      <c r="D495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>494</v>
+      </c>
+      <c r="B496">
+        <v>0.5</v>
+      </c>
+      <c r="C496">
+        <v>0</v>
+      </c>
+      <c r="D496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>495</v>
+      </c>
+      <c r="B497">
+        <v>0.5</v>
+      </c>
+      <c r="C497">
+        <v>0</v>
+      </c>
+      <c r="D497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>496</v>
+      </c>
+      <c r="B498">
+        <v>0.5</v>
+      </c>
+      <c r="C498">
+        <v>0</v>
+      </c>
+      <c r="D498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>497</v>
+      </c>
+      <c r="B499">
+        <v>0.5</v>
+      </c>
+      <c r="C499">
+        <v>0</v>
+      </c>
+      <c r="D499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>498</v>
+      </c>
+      <c r="B500">
+        <v>0.5</v>
+      </c>
+      <c r="C500">
+        <v>0</v>
+      </c>
+      <c r="D500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>499</v>
+      </c>
+      <c r="B501">
+        <v>0.5</v>
+      </c>
+      <c r="C501">
+        <v>0</v>
+      </c>
+      <c r="D501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>500</v>
+      </c>
+      <c r="B502">
+        <v>0.51724999999999999</v>
+      </c>
+      <c r="C502">
+        <v>0</v>
+      </c>
+      <c r="D502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A503">
+        <v>501</v>
+      </c>
+      <c r="B503">
+        <v>0.44735000000000003</v>
+      </c>
+      <c r="C503">
+        <v>0</v>
+      </c>
+      <c r="D503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A504">
+        <v>502</v>
+      </c>
+      <c r="B504">
+        <v>0.53574999999999995</v>
+      </c>
+      <c r="C504">
+        <v>0</v>
+      </c>
+      <c r="D504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A505">
+        <v>503</v>
+      </c>
+      <c r="B505">
+        <v>0.5</v>
+      </c>
+      <c r="C505">
+        <v>0</v>
+      </c>
+      <c r="D505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A506">
+        <v>504</v>
+      </c>
+      <c r="B506">
+        <v>0.5</v>
+      </c>
+      <c r="C506">
+        <v>0</v>
+      </c>
+      <c r="D506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A507">
+        <v>505</v>
+      </c>
+      <c r="B507">
+        <v>0.49059999999999998</v>
+      </c>
+      <c r="C507">
+        <v>0</v>
+      </c>
+      <c r="D507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A508">
+        <v>506</v>
+      </c>
+      <c r="B508">
+        <v>0.5</v>
+      </c>
+      <c r="C508">
+        <v>0</v>
+      </c>
+      <c r="D508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A509">
+        <v>507</v>
+      </c>
+      <c r="B509">
+        <v>0.5</v>
+      </c>
+      <c r="C509">
+        <v>0</v>
+      </c>
+      <c r="D509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A510">
+        <v>508</v>
+      </c>
+      <c r="B510">
+        <v>0.5</v>
+      </c>
+      <c r="C510">
+        <v>0</v>
+      </c>
+      <c r="D510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A511">
+        <v>509</v>
+      </c>
+      <c r="B511">
+        <v>0.42854999999999999</v>
+      </c>
+      <c r="C511">
+        <v>0</v>
+      </c>
+      <c r="D511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <v>510</v>
+      </c>
+      <c r="B512">
+        <v>0.5</v>
+      </c>
+      <c r="C512">
+        <v>0</v>
+      </c>
+      <c r="D512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A513">
+        <v>511</v>
+      </c>
+      <c r="B513">
+        <v>0.52085000000000004</v>
+      </c>
+      <c r="C513">
+        <v>0</v>
+      </c>
+      <c r="D513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <v>512</v>
+      </c>
+      <c r="B514">
+        <v>0.46294999999999997</v>
+      </c>
+      <c r="C514">
+        <v>0</v>
+      </c>
+      <c r="D514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A515">
+        <v>513</v>
+      </c>
+      <c r="B515">
+        <v>0.5</v>
+      </c>
+      <c r="C515">
+        <v>0</v>
+      </c>
+      <c r="D515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A516">
+        <v>514</v>
+      </c>
+      <c r="B516">
+        <v>0.46665000000000001</v>
+      </c>
+      <c r="C516">
+        <v>0</v>
+      </c>
+      <c r="D516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A517">
+        <v>515</v>
+      </c>
+      <c r="B517">
+        <v>0.5</v>
+      </c>
+      <c r="C517">
+        <v>0</v>
+      </c>
+      <c r="D517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <v>516</v>
+      </c>
+      <c r="B518">
+        <v>0.5</v>
+      </c>
+      <c r="C518">
+        <v>0</v>
+      </c>
+      <c r="D518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <v>517</v>
+      </c>
+      <c r="B519">
+        <v>0.5</v>
+      </c>
+      <c r="C519">
+        <v>0</v>
+      </c>
+      <c r="D519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <v>518</v>
+      </c>
+      <c r="B520">
+        <v>0.38890000000000002</v>
+      </c>
+      <c r="C520">
+        <v>0</v>
+      </c>
+      <c r="D520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>519</v>
+      </c>
+      <c r="B521">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="C521">
+        <v>0</v>
+      </c>
+      <c r="D521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <v>520</v>
+      </c>
+      <c r="B522">
+        <v>0.41665000000000002</v>
+      </c>
+      <c r="C522">
+        <v>0</v>
+      </c>
+      <c r="D522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <v>521</v>
+      </c>
+      <c r="B523">
+        <v>0.46155000000000002</v>
+      </c>
+      <c r="C523">
+        <v>0</v>
+      </c>
+      <c r="D523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A524">
+        <v>522</v>
+      </c>
+      <c r="B524">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C524">
+        <v>0</v>
+      </c>
+      <c r="D524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A525">
+        <v>523</v>
+      </c>
+      <c r="B525">
+        <v>0.5</v>
+      </c>
+      <c r="C525">
+        <v>0</v>
+      </c>
+      <c r="D525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <v>524</v>
+      </c>
+      <c r="B526">
+        <v>0.46875</v>
+      </c>
+      <c r="C526">
+        <v>0</v>
+      </c>
+      <c r="D526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A527">
+        <v>525</v>
+      </c>
+      <c r="B527">
+        <v>0.45</v>
+      </c>
+      <c r="C527">
+        <v>0</v>
+      </c>
+      <c r="D527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <v>526</v>
+      </c>
+      <c r="B528">
+        <v>0.4</v>
+      </c>
+      <c r="C528">
+        <v>0</v>
+      </c>
+      <c r="D528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A529">
+        <v>527</v>
+      </c>
+      <c r="B529">
+        <v>0.51219999999999999</v>
+      </c>
+      <c r="C529">
+        <v>0</v>
+      </c>
+      <c r="D529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A530">
+        <v>528</v>
+      </c>
+      <c r="B530">
+        <v>0.5</v>
+      </c>
+      <c r="C530">
+        <v>0</v>
+      </c>
+      <c r="D530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A531">
+        <v>529</v>
+      </c>
+      <c r="B531">
+        <v>0.56520000000000004</v>
+      </c>
+      <c r="C531">
+        <v>0</v>
+      </c>
+      <c r="D531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A532">
+        <v>530</v>
+      </c>
+      <c r="B532">
+        <v>0.53334999999999999</v>
+      </c>
+      <c r="C532">
+        <v>0</v>
+      </c>
+      <c r="D532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A533">
+        <v>531</v>
+      </c>
+      <c r="B533">
+        <v>0.5</v>
+      </c>
+      <c r="C533">
+        <v>0</v>
+      </c>
+      <c r="D533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A534">
+        <v>532</v>
+      </c>
+      <c r="B534">
+        <v>0.41665000000000002</v>
+      </c>
+      <c r="C534">
+        <v>0</v>
+      </c>
+      <c r="D534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>533</v>
+      </c>
+      <c r="B535">
+        <v>0.5</v>
+      </c>
+      <c r="C535">
+        <v>0</v>
+      </c>
+      <c r="D535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>534</v>
+      </c>
+      <c r="B536">
+        <v>0.375</v>
+      </c>
+      <c r="C536">
+        <v>0</v>
+      </c>
+      <c r="D536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A537">
+        <v>535</v>
+      </c>
+      <c r="B537">
+        <v>0.5</v>
+      </c>
+      <c r="C537">
+        <v>0</v>
+      </c>
+      <c r="D537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <v>536</v>
+      </c>
+      <c r="B538">
+        <v>0.46155000000000002</v>
+      </c>
+      <c r="C538">
+        <v>0</v>
+      </c>
+      <c r="D538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>537</v>
+      </c>
+      <c r="B539">
+        <v>0.5</v>
+      </c>
+      <c r="C539">
+        <v>0</v>
+      </c>
+      <c r="D539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A540">
+        <v>538</v>
+      </c>
+      <c r="B540">
+        <v>0.5</v>
+      </c>
+      <c r="C540">
+        <v>0</v>
+      </c>
+      <c r="D540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A541">
+        <v>539</v>
+      </c>
+      <c r="B541">
+        <v>0.5</v>
+      </c>
+      <c r="C541">
+        <v>0</v>
+      </c>
+      <c r="D541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A542">
+        <v>540</v>
+      </c>
+      <c r="B542">
+        <v>0.57145000000000001</v>
+      </c>
+      <c r="C542">
+        <v>0</v>
+      </c>
+      <c r="D542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A543">
+        <v>541</v>
+      </c>
+      <c r="B543">
+        <v>0.5</v>
+      </c>
+      <c r="C543">
+        <v>0</v>
+      </c>
+      <c r="D543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A544">
+        <v>542</v>
+      </c>
+      <c r="B544">
+        <v>0.64285000000000003</v>
+      </c>
+      <c r="C544">
+        <v>0</v>
+      </c>
+      <c r="D544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A545">
+        <v>543</v>
+      </c>
+      <c r="B545">
+        <v>0.5</v>
+      </c>
+      <c r="C545">
+        <v>0</v>
+      </c>
+      <c r="D545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A546">
+        <v>544</v>
+      </c>
+      <c r="B546">
+        <v>0.5</v>
+      </c>
+      <c r="C546">
+        <v>0</v>
+      </c>
+      <c r="D546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A547">
+        <v>545</v>
+      </c>
+      <c r="B547">
+        <v>0.5</v>
+      </c>
+      <c r="C547">
+        <v>0</v>
+      </c>
+      <c r="D547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A548">
+        <v>546</v>
+      </c>
+      <c r="B548">
+        <v>0.51849999999999996</v>
+      </c>
+      <c r="C548">
+        <v>0</v>
+      </c>
+      <c r="D548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A549">
+        <v>547</v>
+      </c>
+      <c r="B549">
+        <v>0.5</v>
+      </c>
+      <c r="C549">
+        <v>0</v>
+      </c>
+      <c r="D549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A550">
+        <v>548</v>
+      </c>
+      <c r="B550">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A551">
+        <v>549</v>
+      </c>
+      <c r="B551">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A552">
+        <v>550</v>
+      </c>
+      <c r="B552">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A553">
+        <v>551</v>
+      </c>
+      <c r="B553">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A554">
+        <v>552</v>
+      </c>
+      <c r="B554">
+        <v>0.45834999999999998</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G17"/>
-  </mergeCells>
+  <autoFilter ref="A1:D554" xr:uid="{3102C355-748A-4739-B101-60244BA4C0D8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Generated Datasets Benchmark/Data Benchmark.xlsx
+++ b/Generated Datasets Benchmark/Data Benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xzhan176\Documents\GitHub\Network_Node_Selection\Generated Datasets Benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8425E84A-4404-4FED-93DE-4721073408D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760C4029-350B-49A2-A048-93AAAE52EA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{95DAD813-F891-438B-9A1C-17A832C3DD3A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{95DAD813-F891-438B-9A1C-17A832C3DD3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Lable_nzs</t>
   </si>
@@ -679,7 +679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0731430-B7AF-49BD-ACA5-3D1233575E32}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -854,7 +854,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="E1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1990,19 +1990,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3102C355-748A-4739-B101-60244BA4C0D8}">
-  <dimension ref="A1:D554"/>
+  <dimension ref="A1:F554"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>50</v>
       </c>
@@ -2015,8 +2018,14 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2029,8 +2038,14 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2043,8 +2058,14 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2057,8 +2078,14 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2071,8 +2098,14 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2085,8 +2118,14 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2099,8 +2138,14 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2113,8 +2158,14 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2127,8 +2178,14 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2141,8 +2198,14 @@
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2155,8 +2218,14 @@
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2169,8 +2238,14 @@
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2183,8 +2258,14 @@
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2197,8 +2278,14 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2211,8 +2298,14 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2225,8 +2318,14 @@
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2239,8 +2338,14 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2253,8 +2358,14 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2267,8 +2378,14 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2281,8 +2398,14 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2295,8 +2418,14 @@
       <c r="D21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2309,8 +2438,14 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2323,8 +2458,14 @@
       <c r="D23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2337,8 +2478,14 @@
       <c r="D24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2351,8 +2498,14 @@
       <c r="D25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2365,8 +2518,14 @@
       <c r="D26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2379,8 +2538,14 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2393,8 +2558,14 @@
       <c r="D28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2407,8 +2578,14 @@
       <c r="D29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2421,8 +2598,14 @@
       <c r="D30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2435,8 +2618,14 @@
       <c r="D31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2449,8 +2638,14 @@
       <c r="D32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2463,8 +2658,14 @@
       <c r="D33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2477,8 +2678,14 @@
       <c r="D34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2491,8 +2698,14 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2505,8 +2718,14 @@
       <c r="D36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2519,8 +2738,14 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2533,8 +2758,14 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2547,8 +2778,14 @@
       <c r="D39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2561,8 +2798,14 @@
       <c r="D40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2575,8 +2818,14 @@
       <c r="D41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2589,8 +2838,14 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2603,8 +2858,14 @@
       <c r="D43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2617,8 +2878,14 @@
       <c r="D44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2631,8 +2898,14 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2645,8 +2918,14 @@
       <c r="D46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2659,8 +2938,14 @@
       <c r="D47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2673,8 +2958,14 @@
       <c r="D48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2687,8 +2978,14 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2701,8 +2998,14 @@
       <c r="D50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2715,8 +3018,14 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2729,8 +3038,14 @@
       <c r="D52">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2743,8 +3058,14 @@
       <c r="D53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2757,8 +3078,14 @@
       <c r="D54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2771,8 +3098,14 @@
       <c r="D55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2785,8 +3118,14 @@
       <c r="D56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2799,8 +3138,14 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2813,8 +3158,14 @@
       <c r="D58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2827,8 +3178,14 @@
       <c r="D59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2841,8 +3198,14 @@
       <c r="D60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2855,8 +3218,14 @@
       <c r="D61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2869,8 +3238,14 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2883,8 +3258,14 @@
       <c r="D63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2897,8 +3278,14 @@
       <c r="D64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2911,8 +3298,14 @@
       <c r="D65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2925,8 +3318,14 @@
       <c r="D66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2939,8 +3338,14 @@
       <c r="D67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2953,8 +3358,14 @@
       <c r="D68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2967,8 +3378,14 @@
       <c r="D69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2981,8 +3398,14 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2995,8 +3418,14 @@
       <c r="D71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3009,8 +3438,14 @@
       <c r="D72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -3023,8 +3458,14 @@
       <c r="D73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -3037,8 +3478,14 @@
       <c r="D74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -3051,8 +3498,14 @@
       <c r="D75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -3065,8 +3518,14 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -3079,8 +3538,14 @@
       <c r="D77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3093,8 +3558,14 @@
       <c r="D78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -3107,8 +3578,14 @@
       <c r="D79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -3121,8 +3598,14 @@
       <c r="D80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -3135,8 +3618,14 @@
       <c r="D81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -3149,8 +3638,14 @@
       <c r="D82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -3163,8 +3658,14 @@
       <c r="D83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -3177,8 +3678,14 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3191,8 +3698,14 @@
       <c r="D85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -3205,8 +3718,14 @@
       <c r="D86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -3219,8 +3738,14 @@
       <c r="D87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -3233,8 +3758,14 @@
       <c r="D88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3247,8 +3778,14 @@
       <c r="D89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -3261,8 +3798,14 @@
       <c r="D90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -3275,8 +3818,14 @@
       <c r="D91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -3289,8 +3838,14 @@
       <c r="D92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -3303,8 +3858,14 @@
       <c r="D93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -3317,8 +3878,14 @@
       <c r="D94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -3331,8 +3898,14 @@
       <c r="D95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -3345,8 +3918,14 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -3359,8 +3938,14 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -3373,8 +3958,14 @@
       <c r="D98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -3387,8 +3978,14 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -3401,8 +3998,14 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -3415,8 +4018,14 @@
       <c r="D101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -3429,8 +4038,14 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
@@ -3443,8 +4058,14 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -3457,8 +4078,14 @@
       <c r="D104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
@@ -3471,8 +4098,14 @@
       <c r="D105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
@@ -3485,8 +4118,14 @@
       <c r="D106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
@@ -3499,8 +4138,14 @@
       <c r="D107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
@@ -3513,8 +4158,14 @@
       <c r="D108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
@@ -3527,8 +4178,14 @@
       <c r="D109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
@@ -3541,8 +4198,14 @@
       <c r="D110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
@@ -3555,8 +4218,14 @@
       <c r="D111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
@@ -3569,8 +4238,14 @@
       <c r="D112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
@@ -3583,8 +4258,14 @@
       <c r="D113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
@@ -3597,8 +4278,14 @@
       <c r="D114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
@@ -3611,8 +4298,14 @@
       <c r="D115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
@@ -3625,8 +4318,14 @@
       <c r="D116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
@@ -3639,8 +4338,14 @@
       <c r="D117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
@@ -3653,8 +4358,14 @@
       <c r="D118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
@@ -3667,8 +4378,14 @@
       <c r="D119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
@@ -3681,8 +4398,14 @@
       <c r="D120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
@@ -3695,8 +4418,14 @@
       <c r="D121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
@@ -3709,8 +4438,14 @@
       <c r="D122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
@@ -3723,8 +4458,14 @@
       <c r="D123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
@@ -3737,8 +4478,14 @@
       <c r="D124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
@@ -3751,8 +4498,14 @@
       <c r="D125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
@@ -3765,8 +4518,14 @@
       <c r="D126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
@@ -3779,8 +4538,14 @@
       <c r="D127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
@@ -3793,8 +4558,14 @@
       <c r="D128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
@@ -3807,8 +4578,14 @@
       <c r="D129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
@@ -3821,8 +4598,14 @@
       <c r="D130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
@@ -3835,8 +4618,14 @@
       <c r="D131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
@@ -3849,8 +4638,14 @@
       <c r="D132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
@@ -3863,8 +4658,14 @@
       <c r="D133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
@@ -3877,8 +4678,14 @@
       <c r="D134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>133</v>
       </c>
@@ -3891,8 +4698,14 @@
       <c r="D135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>134</v>
       </c>
@@ -3905,8 +4718,14 @@
       <c r="D136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>135</v>
       </c>
@@ -3919,8 +4738,14 @@
       <c r="D137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>136</v>
       </c>
@@ -3933,8 +4758,14 @@
       <c r="D138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>137</v>
       </c>
@@ -3947,8 +4778,14 @@
       <c r="D139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>138</v>
       </c>
@@ -3961,8 +4798,14 @@
       <c r="D140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>139</v>
       </c>
@@ -3975,8 +4818,14 @@
       <c r="D141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>140</v>
       </c>
@@ -3989,8 +4838,14 @@
       <c r="D142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>141</v>
       </c>
@@ -4003,8 +4858,14 @@
       <c r="D143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>142</v>
       </c>
@@ -4017,8 +4878,14 @@
       <c r="D144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>143</v>
       </c>
@@ -4031,8 +4898,14 @@
       <c r="D145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>144</v>
       </c>
@@ -4045,8 +4918,14 @@
       <c r="D146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>145</v>
       </c>
@@ -4059,8 +4938,14 @@
       <c r="D147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>146</v>
       </c>
@@ -4073,8 +4958,14 @@
       <c r="D148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>147</v>
       </c>
@@ -4087,8 +4978,14 @@
       <c r="D149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>148</v>
       </c>
@@ -4101,8 +4998,14 @@
       <c r="D150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>149</v>
       </c>
@@ -4115,8 +5018,14 @@
       <c r="D151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>150</v>
       </c>
@@ -4129,8 +5038,14 @@
       <c r="D152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>151</v>
       </c>
@@ -4143,8 +5058,14 @@
       <c r="D153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>152</v>
       </c>
@@ -4157,8 +5078,14 @@
       <c r="D154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>153</v>
       </c>
@@ -4171,8 +5098,14 @@
       <c r="D155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>154</v>
       </c>
@@ -4185,8 +5118,14 @@
       <c r="D156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>155</v>
       </c>
@@ -4199,8 +5138,14 @@
       <c r="D157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>156</v>
       </c>
@@ -4213,8 +5158,14 @@
       <c r="D158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>157</v>
       </c>
@@ -4227,8 +5178,14 @@
       <c r="D159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>158</v>
       </c>
@@ -4241,8 +5198,14 @@
       <c r="D160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>159</v>
       </c>
@@ -4255,8 +5218,14 @@
       <c r="D161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>160</v>
       </c>
@@ -4269,8 +5238,14 @@
       <c r="D162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>161</v>
       </c>
@@ -4283,8 +5258,14 @@
       <c r="D163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>162</v>
       </c>
@@ -4297,8 +5278,14 @@
       <c r="D164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>163</v>
       </c>
@@ -4311,8 +5298,14 @@
       <c r="D165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>164</v>
       </c>
@@ -4325,8 +5318,14 @@
       <c r="D166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>165</v>
       </c>
@@ -4339,8 +5338,14 @@
       <c r="D167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>166</v>
       </c>
@@ -4353,8 +5358,14 @@
       <c r="D168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>167</v>
       </c>
@@ -4367,8 +5378,14 @@
       <c r="D169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>168</v>
       </c>
@@ -4381,8 +5398,14 @@
       <c r="D170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>169</v>
       </c>
@@ -4395,8 +5418,14 @@
       <c r="D171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>170</v>
       </c>
@@ -4409,8 +5438,14 @@
       <c r="D172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>171</v>
       </c>
@@ -4423,8 +5458,14 @@
       <c r="D173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>172</v>
       </c>
@@ -4437,8 +5478,14 @@
       <c r="D174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>173</v>
       </c>
@@ -4451,8 +5498,14 @@
       <c r="D175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>174</v>
       </c>
@@ -4465,8 +5518,14 @@
       <c r="D176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>175</v>
       </c>
@@ -4479,8 +5538,14 @@
       <c r="D177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>176</v>
       </c>
@@ -4493,8 +5558,14 @@
       <c r="D178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>177</v>
       </c>
@@ -4507,8 +5578,14 @@
       <c r="D179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>178</v>
       </c>
@@ -4521,8 +5598,14 @@
       <c r="D180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>179</v>
       </c>
@@ -4535,8 +5618,14 @@
       <c r="D181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>180</v>
       </c>
@@ -4549,8 +5638,14 @@
       <c r="D182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>181</v>
       </c>
@@ -4563,8 +5658,14 @@
       <c r="D183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>182</v>
       </c>
@@ -4577,8 +5678,14 @@
       <c r="D184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>183</v>
       </c>
@@ -4591,8 +5698,14 @@
       <c r="D185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>184</v>
       </c>
@@ -4605,8 +5718,14 @@
       <c r="D186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>185</v>
       </c>
@@ -4619,8 +5738,14 @@
       <c r="D187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>186</v>
       </c>
@@ -4633,8 +5758,14 @@
       <c r="D188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>187</v>
       </c>
@@ -4647,8 +5778,14 @@
       <c r="D189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>188</v>
       </c>
@@ -4661,8 +5798,14 @@
       <c r="D190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>189</v>
       </c>
@@ -4675,8 +5818,14 @@
       <c r="D191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>190</v>
       </c>
@@ -4689,8 +5838,14 @@
       <c r="D192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>191</v>
       </c>
@@ -4703,8 +5858,14 @@
       <c r="D193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>192</v>
       </c>
@@ -4717,8 +5878,14 @@
       <c r="D194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>193</v>
       </c>
@@ -4731,8 +5898,14 @@
       <c r="D195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>194</v>
       </c>
@@ -4745,8 +5918,14 @@
       <c r="D196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>195</v>
       </c>
@@ -4759,8 +5938,14 @@
       <c r="D197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>196</v>
       </c>
@@ -4773,8 +5958,14 @@
       <c r="D198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>197</v>
       </c>
@@ -4787,8 +5978,14 @@
       <c r="D199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>198</v>
       </c>
@@ -4801,8 +5998,14 @@
       <c r="D200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>199</v>
       </c>
@@ -4815,8 +6018,14 @@
       <c r="D201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>200</v>
       </c>
@@ -4829,8 +6038,14 @@
       <c r="D202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>201</v>
       </c>
@@ -4843,8 +6058,14 @@
       <c r="D203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>202</v>
       </c>
@@ -4857,8 +6078,14 @@
       <c r="D204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>203</v>
       </c>
@@ -4871,8 +6098,14 @@
       <c r="D205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>204</v>
       </c>
@@ -4885,8 +6118,14 @@
       <c r="D206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>205</v>
       </c>
@@ -4899,8 +6138,14 @@
       <c r="D207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>206</v>
       </c>
@@ -4913,8 +6158,14 @@
       <c r="D208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>207</v>
       </c>
@@ -4927,8 +6178,14 @@
       <c r="D209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>208</v>
       </c>
@@ -4941,8 +6198,14 @@
       <c r="D210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>209</v>
       </c>
@@ -4955,8 +6218,14 @@
       <c r="D211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>210</v>
       </c>
@@ -4969,8 +6238,14 @@
       <c r="D212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>211</v>
       </c>
@@ -4983,8 +6258,14 @@
       <c r="D213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>212</v>
       </c>
@@ -4997,8 +6278,14 @@
       <c r="D214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>213</v>
       </c>
@@ -5011,8 +6298,14 @@
       <c r="D215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>214</v>
       </c>
@@ -5025,8 +6318,14 @@
       <c r="D216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>215</v>
       </c>
@@ -5039,8 +6338,14 @@
       <c r="D217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>216</v>
       </c>
@@ -5053,8 +6358,14 @@
       <c r="D218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>217</v>
       </c>
@@ -5067,8 +6378,14 @@
       <c r="D219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>218</v>
       </c>
@@ -5081,8 +6398,14 @@
       <c r="D220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>219</v>
       </c>
@@ -5095,8 +6418,14 @@
       <c r="D221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>220</v>
       </c>
@@ -5109,8 +6438,14 @@
       <c r="D222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>221</v>
       </c>
@@ -5123,8 +6458,14 @@
       <c r="D223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>222</v>
       </c>
@@ -5137,8 +6478,14 @@
       <c r="D224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>223</v>
       </c>
@@ -5151,8 +6498,14 @@
       <c r="D225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>224</v>
       </c>
@@ -5165,8 +6518,14 @@
       <c r="D226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>225</v>
       </c>
@@ -5179,8 +6538,14 @@
       <c r="D227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>226</v>
       </c>
@@ -5193,8 +6558,14 @@
       <c r="D228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>227</v>
       </c>
@@ -5207,8 +6578,14 @@
       <c r="D229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>228</v>
       </c>
@@ -5221,8 +6598,14 @@
       <c r="D230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>229</v>
       </c>
@@ -5235,8 +6618,14 @@
       <c r="D231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>230</v>
       </c>
@@ -5249,8 +6638,14 @@
       <c r="D232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>231</v>
       </c>
@@ -5263,8 +6658,14 @@
       <c r="D233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>232</v>
       </c>
@@ -5277,8 +6678,14 @@
       <c r="D234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>233</v>
       </c>
@@ -5291,8 +6698,14 @@
       <c r="D235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>234</v>
       </c>
@@ -5305,8 +6718,14 @@
       <c r="D236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>235</v>
       </c>
@@ -5319,8 +6738,14 @@
       <c r="D237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>236</v>
       </c>
@@ -5333,8 +6758,14 @@
       <c r="D238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>237</v>
       </c>
@@ -5347,8 +6778,14 @@
       <c r="D239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>238</v>
       </c>
@@ -5361,8 +6798,14 @@
       <c r="D240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>239</v>
       </c>
@@ -5375,8 +6818,14 @@
       <c r="D241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>240</v>
       </c>
@@ -5389,8 +6838,14 @@
       <c r="D242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>241</v>
       </c>
@@ -5403,8 +6858,14 @@
       <c r="D243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>242</v>
       </c>
@@ -5417,8 +6878,14 @@
       <c r="D244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>243</v>
       </c>
@@ -5431,8 +6898,14 @@
       <c r="D245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>244</v>
       </c>
@@ -5445,8 +6918,14 @@
       <c r="D246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>245</v>
       </c>
@@ -5459,8 +6938,14 @@
       <c r="D247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>246</v>
       </c>
@@ -5473,8 +6958,14 @@
       <c r="D248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>247</v>
       </c>
@@ -5487,8 +6978,14 @@
       <c r="D249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>248</v>
       </c>
@@ -5501,8 +6998,14 @@
       <c r="D250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>249</v>
       </c>
@@ -5515,8 +7018,14 @@
       <c r="D251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>250</v>
       </c>
@@ -5529,8 +7038,14 @@
       <c r="D252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>251</v>
       </c>
@@ -5543,8 +7058,14 @@
       <c r="D253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>252</v>
       </c>
@@ -5557,8 +7078,14 @@
       <c r="D254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>253</v>
       </c>
@@ -5571,8 +7098,14 @@
       <c r="D255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>254</v>
       </c>
@@ -5585,8 +7118,14 @@
       <c r="D256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>255</v>
       </c>
@@ -5599,8 +7138,14 @@
       <c r="D257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>256</v>
       </c>
@@ -5613,8 +7158,14 @@
       <c r="D258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>257</v>
       </c>
@@ -5627,8 +7178,14 @@
       <c r="D259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>258</v>
       </c>
@@ -5641,8 +7198,14 @@
       <c r="D260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>259</v>
       </c>
@@ -5655,8 +7218,14 @@
       <c r="D261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>260</v>
       </c>
@@ -5669,8 +7238,14 @@
       <c r="D262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>261</v>
       </c>
@@ -5683,8 +7258,14 @@
       <c r="D263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>262</v>
       </c>
@@ -5697,8 +7278,14 @@
       <c r="D264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>263</v>
       </c>
@@ -5711,8 +7298,14 @@
       <c r="D265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>264</v>
       </c>
@@ -5725,8 +7318,14 @@
       <c r="D266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>265</v>
       </c>
@@ -5739,8 +7338,14 @@
       <c r="D267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>266</v>
       </c>
@@ -5753,8 +7358,14 @@
       <c r="D268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>267</v>
       </c>
@@ -5767,8 +7378,14 @@
       <c r="D269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>268</v>
       </c>
@@ -5781,8 +7398,14 @@
       <c r="D270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E270">
+        <v>0</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>269</v>
       </c>
@@ -5795,8 +7418,14 @@
       <c r="D271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E271">
+        <v>0</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>270</v>
       </c>
@@ -5809,8 +7438,14 @@
       <c r="D272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>271</v>
       </c>
@@ -5823,8 +7458,14 @@
       <c r="D273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>272</v>
       </c>
@@ -5837,8 +7478,14 @@
       <c r="D274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E274">
+        <v>0</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>273</v>
       </c>
@@ -5851,8 +7498,14 @@
       <c r="D275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>274</v>
       </c>
@@ -5865,8 +7518,14 @@
       <c r="D276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>275</v>
       </c>
@@ -5879,8 +7538,14 @@
       <c r="D277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>276</v>
       </c>
@@ -5893,8 +7558,14 @@
       <c r="D278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>277</v>
       </c>
@@ -5907,8 +7578,14 @@
       <c r="D279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>278</v>
       </c>
@@ -5921,8 +7598,14 @@
       <c r="D280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>279</v>
       </c>
@@ -5935,8 +7618,14 @@
       <c r="D281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>280</v>
       </c>
@@ -5949,8 +7638,14 @@
       <c r="D282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>281</v>
       </c>
@@ -5963,8 +7658,14 @@
       <c r="D283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>282</v>
       </c>
@@ -5977,8 +7678,14 @@
       <c r="D284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>283</v>
       </c>
@@ -5991,8 +7698,14 @@
       <c r="D285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>284</v>
       </c>
@@ -6005,8 +7718,14 @@
       <c r="D286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E286">
+        <v>2</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>285</v>
       </c>
@@ -6019,8 +7738,14 @@
       <c r="D287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>286</v>
       </c>
@@ -6033,8 +7758,14 @@
       <c r="D288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>287</v>
       </c>
@@ -6047,8 +7778,14 @@
       <c r="D289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>288</v>
       </c>
@@ -6061,8 +7798,14 @@
       <c r="D290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>289</v>
       </c>
@@ -6075,8 +7818,14 @@
       <c r="D291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>290</v>
       </c>
@@ -6089,8 +7838,14 @@
       <c r="D292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>291</v>
       </c>
@@ -6103,8 +7858,14 @@
       <c r="D293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>292</v>
       </c>
@@ -6117,8 +7878,14 @@
       <c r="D294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>293</v>
       </c>
@@ -6131,8 +7898,14 @@
       <c r="D295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>294</v>
       </c>
@@ -6145,8 +7918,14 @@
       <c r="D296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>295</v>
       </c>
@@ -6159,8 +7938,14 @@
       <c r="D297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>296</v>
       </c>
@@ -6173,8 +7958,14 @@
       <c r="D298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>297</v>
       </c>
@@ -6187,8 +7978,14 @@
       <c r="D299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>298</v>
       </c>
@@ -6201,8 +7998,14 @@
       <c r="D300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E300">
+        <v>0</v>
+      </c>
+      <c r="F300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>299</v>
       </c>
@@ -6215,8 +8018,14 @@
       <c r="D301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>300</v>
       </c>
@@ -6229,8 +8038,14 @@
       <c r="D302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>301</v>
       </c>
@@ -6243,8 +8058,14 @@
       <c r="D303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E303">
+        <v>0</v>
+      </c>
+      <c r="F303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>302</v>
       </c>
@@ -6257,8 +8078,14 @@
       <c r="D304">
         <v>3</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="F304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>303</v>
       </c>
@@ -6271,8 +8098,14 @@
       <c r="D305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="F305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>304</v>
       </c>
@@ -6285,8 +8118,14 @@
       <c r="D306">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="F306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>305</v>
       </c>
@@ -6299,8 +8138,14 @@
       <c r="D307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>306</v>
       </c>
@@ -6313,8 +8158,14 @@
       <c r="D308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="F308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>307</v>
       </c>
@@ -6327,8 +8178,14 @@
       <c r="D309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>308</v>
       </c>
@@ -6341,8 +8198,14 @@
       <c r="D310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E310">
+        <v>0</v>
+      </c>
+      <c r="F310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>309</v>
       </c>
@@ -6355,8 +8218,14 @@
       <c r="D311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E311">
+        <v>0</v>
+      </c>
+      <c r="F311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>310</v>
       </c>
@@ -6369,8 +8238,14 @@
       <c r="D312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E312">
+        <v>0</v>
+      </c>
+      <c r="F312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>311</v>
       </c>
@@ -6383,8 +8258,14 @@
       <c r="D313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E313">
+        <v>0</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>312</v>
       </c>
@@ -6397,8 +8278,14 @@
       <c r="D314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E314">
+        <v>0</v>
+      </c>
+      <c r="F314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>313</v>
       </c>
@@ -6411,8 +8298,14 @@
       <c r="D315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E315">
+        <v>0</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>314</v>
       </c>
@@ -6425,8 +8318,14 @@
       <c r="D316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E316">
+        <v>0</v>
+      </c>
+      <c r="F316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>315</v>
       </c>
@@ -6439,8 +8338,14 @@
       <c r="D317">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E317">
+        <v>0</v>
+      </c>
+      <c r="F317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>316</v>
       </c>
@@ -6453,8 +8358,14 @@
       <c r="D318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E318">
+        <v>0</v>
+      </c>
+      <c r="F318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>317</v>
       </c>
@@ -6467,8 +8378,14 @@
       <c r="D319">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>318</v>
       </c>
@@ -6481,8 +8398,14 @@
       <c r="D320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E320">
+        <v>0</v>
+      </c>
+      <c r="F320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>319</v>
       </c>
@@ -6495,8 +8418,14 @@
       <c r="D321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E321">
+        <v>0</v>
+      </c>
+      <c r="F321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>320</v>
       </c>
@@ -6509,8 +8438,14 @@
       <c r="D322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E322">
+        <v>0</v>
+      </c>
+      <c r="F322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>321</v>
       </c>
@@ -6523,8 +8458,14 @@
       <c r="D323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E323">
+        <v>0</v>
+      </c>
+      <c r="F323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>322</v>
       </c>
@@ -6537,8 +8478,14 @@
       <c r="D324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E324">
+        <v>0</v>
+      </c>
+      <c r="F324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>323</v>
       </c>
@@ -6551,8 +8498,14 @@
       <c r="D325">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E325">
+        <v>0</v>
+      </c>
+      <c r="F325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>324</v>
       </c>
@@ -6565,8 +8518,14 @@
       <c r="D326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E326">
+        <v>0</v>
+      </c>
+      <c r="F326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>325</v>
       </c>
@@ -6579,8 +8538,14 @@
       <c r="D327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E327">
+        <v>0</v>
+      </c>
+      <c r="F327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>326</v>
       </c>
@@ -6593,8 +8558,14 @@
       <c r="D328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E328">
+        <v>0</v>
+      </c>
+      <c r="F328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>327</v>
       </c>
@@ -6607,8 +8578,14 @@
       <c r="D329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E329">
+        <v>0</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>328</v>
       </c>
@@ -6621,8 +8598,14 @@
       <c r="D330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E330">
+        <v>0</v>
+      </c>
+      <c r="F330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>329</v>
       </c>
@@ -6635,8 +8618,14 @@
       <c r="D331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E331">
+        <v>0</v>
+      </c>
+      <c r="F331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>330</v>
       </c>
@@ -6649,8 +8638,14 @@
       <c r="D332">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E332">
+        <v>0</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>331</v>
       </c>
@@ -6663,8 +8658,14 @@
       <c r="D333">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E333">
+        <v>0</v>
+      </c>
+      <c r="F333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>332</v>
       </c>
@@ -6677,8 +8678,14 @@
       <c r="D334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E334">
+        <v>0</v>
+      </c>
+      <c r="F334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>333</v>
       </c>
@@ -6691,8 +8698,14 @@
       <c r="D335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E335">
+        <v>0</v>
+      </c>
+      <c r="F335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>334</v>
       </c>
@@ -6705,8 +8718,14 @@
       <c r="D336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E336">
+        <v>0</v>
+      </c>
+      <c r="F336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>335</v>
       </c>
@@ -6719,8 +8738,14 @@
       <c r="D337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E337">
+        <v>0</v>
+      </c>
+      <c r="F337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>336</v>
       </c>
@@ -6733,8 +8758,14 @@
       <c r="D338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E338">
+        <v>0</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>337</v>
       </c>
@@ -6747,8 +8778,14 @@
       <c r="D339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E339">
+        <v>0</v>
+      </c>
+      <c r="F339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>338</v>
       </c>
@@ -6761,8 +8798,14 @@
       <c r="D340">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E340">
+        <v>0</v>
+      </c>
+      <c r="F340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>339</v>
       </c>
@@ -6775,8 +8818,14 @@
       <c r="D341">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E341">
+        <v>0</v>
+      </c>
+      <c r="F341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>340</v>
       </c>
@@ -6789,8 +8838,14 @@
       <c r="D342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E342">
+        <v>0</v>
+      </c>
+      <c r="F342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>341</v>
       </c>
@@ -6803,8 +8858,14 @@
       <c r="D343">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E343">
+        <v>0</v>
+      </c>
+      <c r="F343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>342</v>
       </c>
@@ -6817,8 +8878,14 @@
       <c r="D344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E344">
+        <v>0</v>
+      </c>
+      <c r="F344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>343</v>
       </c>
@@ -6831,8 +8898,14 @@
       <c r="D345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E345">
+        <v>0</v>
+      </c>
+      <c r="F345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>344</v>
       </c>
@@ -6845,8 +8918,14 @@
       <c r="D346">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E346">
+        <v>0</v>
+      </c>
+      <c r="F346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>345</v>
       </c>
@@ -6859,8 +8938,14 @@
       <c r="D347">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E347">
+        <v>0</v>
+      </c>
+      <c r="F347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>346</v>
       </c>
@@ -6873,8 +8958,14 @@
       <c r="D348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E348">
+        <v>0</v>
+      </c>
+      <c r="F348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>347</v>
       </c>
@@ -6887,8 +8978,14 @@
       <c r="D349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E349">
+        <v>0</v>
+      </c>
+      <c r="F349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>348</v>
       </c>
@@ -6901,8 +8998,14 @@
       <c r="D350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E350">
+        <v>0</v>
+      </c>
+      <c r="F350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>349</v>
       </c>
@@ -6915,8 +9018,14 @@
       <c r="D351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E351">
+        <v>0</v>
+      </c>
+      <c r="F351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>350</v>
       </c>
@@ -6929,8 +9038,14 @@
       <c r="D352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E352">
+        <v>0</v>
+      </c>
+      <c r="F352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>351</v>
       </c>
@@ -6943,8 +9058,14 @@
       <c r="D353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E353">
+        <v>0</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>352</v>
       </c>
@@ -6957,8 +9078,14 @@
       <c r="D354">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E354">
+        <v>0</v>
+      </c>
+      <c r="F354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>353</v>
       </c>
@@ -6971,8 +9098,14 @@
       <c r="D355">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E355">
+        <v>0</v>
+      </c>
+      <c r="F355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>354</v>
       </c>
@@ -6985,8 +9118,14 @@
       <c r="D356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E356">
+        <v>0</v>
+      </c>
+      <c r="F356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>355</v>
       </c>
@@ -6999,8 +9138,14 @@
       <c r="D357">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E357">
+        <v>0</v>
+      </c>
+      <c r="F357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>356</v>
       </c>
@@ -7013,8 +9158,14 @@
       <c r="D358">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E358">
+        <v>0</v>
+      </c>
+      <c r="F358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>357</v>
       </c>
@@ -7027,8 +9178,14 @@
       <c r="D359">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E359">
+        <v>0</v>
+      </c>
+      <c r="F359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>358</v>
       </c>
@@ -7041,8 +9198,14 @@
       <c r="D360">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E360">
+        <v>0</v>
+      </c>
+      <c r="F360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>359</v>
       </c>
@@ -7055,8 +9218,14 @@
       <c r="D361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E361">
+        <v>0</v>
+      </c>
+      <c r="F361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>360</v>
       </c>
@@ -7069,8 +9238,14 @@
       <c r="D362">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E362">
+        <v>0</v>
+      </c>
+      <c r="F362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>361</v>
       </c>
@@ -7083,8 +9258,14 @@
       <c r="D363">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E363">
+        <v>0</v>
+      </c>
+      <c r="F363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>362</v>
       </c>
@@ -7097,8 +9278,14 @@
       <c r="D364">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E364">
+        <v>0</v>
+      </c>
+      <c r="F364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>363</v>
       </c>
@@ -7111,8 +9298,14 @@
       <c r="D365">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E365">
+        <v>0</v>
+      </c>
+      <c r="F365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>364</v>
       </c>
@@ -7125,8 +9318,14 @@
       <c r="D366">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E366">
+        <v>0</v>
+      </c>
+      <c r="F366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>365</v>
       </c>
@@ -7139,8 +9338,14 @@
       <c r="D367">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E367">
+        <v>0</v>
+      </c>
+      <c r="F367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>366</v>
       </c>
@@ -7153,8 +9358,14 @@
       <c r="D368">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E368">
+        <v>0</v>
+      </c>
+      <c r="F368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>367</v>
       </c>
@@ -7167,8 +9378,14 @@
       <c r="D369">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E369">
+        <v>0</v>
+      </c>
+      <c r="F369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>368</v>
       </c>
@@ -7181,8 +9398,14 @@
       <c r="D370">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E370">
+        <v>0</v>
+      </c>
+      <c r="F370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>369</v>
       </c>
@@ -7195,8 +9418,14 @@
       <c r="D371">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E371">
+        <v>0</v>
+      </c>
+      <c r="F371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>370</v>
       </c>
@@ -7209,8 +9438,14 @@
       <c r="D372">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E372">
+        <v>0</v>
+      </c>
+      <c r="F372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>371</v>
       </c>
@@ -7223,8 +9458,14 @@
       <c r="D373">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E373">
+        <v>0</v>
+      </c>
+      <c r="F373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>372</v>
       </c>
@@ -7237,8 +9478,14 @@
       <c r="D374">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E374">
+        <v>0</v>
+      </c>
+      <c r="F374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>373</v>
       </c>
@@ -7251,8 +9498,14 @@
       <c r="D375">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E375">
+        <v>0</v>
+      </c>
+      <c r="F375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>374</v>
       </c>
@@ -7265,8 +9518,14 @@
       <c r="D376">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E376">
+        <v>0</v>
+      </c>
+      <c r="F376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>375</v>
       </c>
@@ -7279,8 +9538,14 @@
       <c r="D377">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E377">
+        <v>0</v>
+      </c>
+      <c r="F377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>376</v>
       </c>
@@ -7293,8 +9558,14 @@
       <c r="D378">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E378">
+        <v>0</v>
+      </c>
+      <c r="F378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>377</v>
       </c>
@@ -7307,8 +9578,14 @@
       <c r="D379">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E379">
+        <v>0</v>
+      </c>
+      <c r="F379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>378</v>
       </c>
@@ -7321,8 +9598,14 @@
       <c r="D380">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E380">
+        <v>0</v>
+      </c>
+      <c r="F380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>379</v>
       </c>
@@ -7335,8 +9618,14 @@
       <c r="D381">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E381">
+        <v>0</v>
+      </c>
+      <c r="F381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>380</v>
       </c>
@@ -7349,8 +9638,14 @@
       <c r="D382">
         <v>1</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E382">
+        <v>0</v>
+      </c>
+      <c r="F382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>381</v>
       </c>
@@ -7363,8 +9658,14 @@
       <c r="D383">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E383">
+        <v>0</v>
+      </c>
+      <c r="F383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>382</v>
       </c>
@@ -7377,8 +9678,14 @@
       <c r="D384">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E384">
+        <v>0</v>
+      </c>
+      <c r="F384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>383</v>
       </c>
@@ -7391,8 +9698,14 @@
       <c r="D385">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E385">
+        <v>0</v>
+      </c>
+      <c r="F385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>384</v>
       </c>
@@ -7405,8 +9718,14 @@
       <c r="D386">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E386">
+        <v>0</v>
+      </c>
+      <c r="F386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>385</v>
       </c>
@@ -7419,8 +9738,14 @@
       <c r="D387">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E387">
+        <v>0</v>
+      </c>
+      <c r="F387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>386</v>
       </c>
@@ -7433,8 +9758,14 @@
       <c r="D388">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E388">
+        <v>0</v>
+      </c>
+      <c r="F388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>387</v>
       </c>
@@ -7447,8 +9778,14 @@
       <c r="D389">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E389">
+        <v>0</v>
+      </c>
+      <c r="F389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>388</v>
       </c>
@@ -7461,8 +9798,14 @@
       <c r="D390">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E390">
+        <v>0</v>
+      </c>
+      <c r="F390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>389</v>
       </c>
@@ -7475,8 +9818,14 @@
       <c r="D391">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E391">
+        <v>0</v>
+      </c>
+      <c r="F391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>390</v>
       </c>
@@ -7489,8 +9838,14 @@
       <c r="D392">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E392">
+        <v>0</v>
+      </c>
+      <c r="F392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>391</v>
       </c>
@@ -7503,8 +9858,14 @@
       <c r="D393">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E393">
+        <v>0</v>
+      </c>
+      <c r="F393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>392</v>
       </c>
@@ -7517,8 +9878,14 @@
       <c r="D394">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E394">
+        <v>0</v>
+      </c>
+      <c r="F394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>393</v>
       </c>
@@ -7531,8 +9898,14 @@
       <c r="D395">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E395">
+        <v>0</v>
+      </c>
+      <c r="F395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>394</v>
       </c>
@@ -7545,8 +9918,14 @@
       <c r="D396">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E396">
+        <v>0</v>
+      </c>
+      <c r="F396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>395</v>
       </c>
@@ -7559,8 +9938,14 @@
       <c r="D397">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E397">
+        <v>0</v>
+      </c>
+      <c r="F397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>396</v>
       </c>
@@ -7573,8 +9958,14 @@
       <c r="D398">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E398">
+        <v>0</v>
+      </c>
+      <c r="F398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>397</v>
       </c>
@@ -7587,8 +9978,14 @@
       <c r="D399">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E399">
+        <v>0</v>
+      </c>
+      <c r="F399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>398</v>
       </c>
@@ -7601,8 +9998,14 @@
       <c r="D400">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E400">
+        <v>0</v>
+      </c>
+      <c r="F400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>399</v>
       </c>
@@ -7615,8 +10018,14 @@
       <c r="D401">
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E401">
+        <v>0</v>
+      </c>
+      <c r="F401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>400</v>
       </c>
@@ -7629,8 +10038,14 @@
       <c r="D402">
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E402">
+        <v>0</v>
+      </c>
+      <c r="F402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>401</v>
       </c>
@@ -7643,8 +10058,14 @@
       <c r="D403">
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E403">
+        <v>0</v>
+      </c>
+      <c r="F403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>402</v>
       </c>
@@ -7657,8 +10078,14 @@
       <c r="D404">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E404">
+        <v>0</v>
+      </c>
+      <c r="F404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>403</v>
       </c>
@@ -7671,8 +10098,14 @@
       <c r="D405">
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E405">
+        <v>0</v>
+      </c>
+      <c r="F405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>404</v>
       </c>
@@ -7685,8 +10118,14 @@
       <c r="D406">
         <v>0</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E406">
+        <v>0</v>
+      </c>
+      <c r="F406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>405</v>
       </c>
@@ -7699,8 +10138,14 @@
       <c r="D407">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E407">
+        <v>0</v>
+      </c>
+      <c r="F407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>406</v>
       </c>
@@ -7713,8 +10158,14 @@
       <c r="D408">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E408">
+        <v>0</v>
+      </c>
+      <c r="F408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>407</v>
       </c>
@@ -7727,8 +10178,14 @@
       <c r="D409">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E409">
+        <v>0</v>
+      </c>
+      <c r="F409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>408</v>
       </c>
@@ -7741,8 +10198,14 @@
       <c r="D410">
         <v>0</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E410">
+        <v>0</v>
+      </c>
+      <c r="F410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>409</v>
       </c>
@@ -7755,8 +10218,14 @@
       <c r="D411">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E411">
+        <v>0</v>
+      </c>
+      <c r="F411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>410</v>
       </c>
@@ -7769,8 +10238,14 @@
       <c r="D412">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E412">
+        <v>0</v>
+      </c>
+      <c r="F412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>411</v>
       </c>
@@ -7783,8 +10258,14 @@
       <c r="D413">
         <v>0</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E413">
+        <v>0</v>
+      </c>
+      <c r="F413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>412</v>
       </c>
@@ -7797,8 +10278,14 @@
       <c r="D414">
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E414">
+        <v>0</v>
+      </c>
+      <c r="F414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>413</v>
       </c>
@@ -7811,8 +10298,14 @@
       <c r="D415">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E415">
+        <v>0</v>
+      </c>
+      <c r="F415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>414</v>
       </c>
@@ -7825,8 +10318,14 @@
       <c r="D416">
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E416">
+        <v>0</v>
+      </c>
+      <c r="F416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>415</v>
       </c>
@@ -7839,8 +10338,14 @@
       <c r="D417">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E417">
+        <v>0</v>
+      </c>
+      <c r="F417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>416</v>
       </c>
@@ -7853,8 +10358,14 @@
       <c r="D418">
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E418">
+        <v>0</v>
+      </c>
+      <c r="F418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>417</v>
       </c>
@@ -7867,8 +10378,14 @@
       <c r="D419">
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E419">
+        <v>0</v>
+      </c>
+      <c r="F419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>418</v>
       </c>
@@ -7881,8 +10398,14 @@
       <c r="D420">
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E420">
+        <v>0</v>
+      </c>
+      <c r="F420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>419</v>
       </c>
@@ -7895,8 +10418,14 @@
       <c r="D421">
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E421">
+        <v>0</v>
+      </c>
+      <c r="F421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>420</v>
       </c>
@@ -7909,8 +10438,14 @@
       <c r="D422">
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E422">
+        <v>0</v>
+      </c>
+      <c r="F422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>421</v>
       </c>
@@ -7923,8 +10458,14 @@
       <c r="D423">
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E423">
+        <v>0</v>
+      </c>
+      <c r="F423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>422</v>
       </c>
@@ -7937,8 +10478,14 @@
       <c r="D424">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E424">
+        <v>0</v>
+      </c>
+      <c r="F424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>423</v>
       </c>
@@ -7951,8 +10498,14 @@
       <c r="D425">
         <v>0</v>
       </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E425">
+        <v>0</v>
+      </c>
+      <c r="F425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>424</v>
       </c>
@@ -7965,8 +10518,14 @@
       <c r="D426">
         <v>0</v>
       </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E426">
+        <v>0</v>
+      </c>
+      <c r="F426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>425</v>
       </c>
@@ -7979,8 +10538,14 @@
       <c r="D427">
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E427">
+        <v>0</v>
+      </c>
+      <c r="F427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>426</v>
       </c>
@@ -7993,8 +10558,14 @@
       <c r="D428">
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E428">
+        <v>0</v>
+      </c>
+      <c r="F428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>427</v>
       </c>
@@ -8007,8 +10578,14 @@
       <c r="D429">
         <v>0</v>
       </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E429">
+        <v>0</v>
+      </c>
+      <c r="F429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>428</v>
       </c>
@@ -8021,8 +10598,14 @@
       <c r="D430">
         <v>0</v>
       </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E430">
+        <v>0</v>
+      </c>
+      <c r="F430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>429</v>
       </c>
@@ -8035,8 +10618,14 @@
       <c r="D431">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E431">
+        <v>0</v>
+      </c>
+      <c r="F431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>430</v>
       </c>
@@ -8049,8 +10638,14 @@
       <c r="D432">
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E432">
+        <v>0</v>
+      </c>
+      <c r="F432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>431</v>
       </c>
@@ -8063,8 +10658,14 @@
       <c r="D433">
         <v>0</v>
       </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E433">
+        <v>0</v>
+      </c>
+      <c r="F433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>432</v>
       </c>
@@ -8077,8 +10678,14 @@
       <c r="D434">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E434">
+        <v>0</v>
+      </c>
+      <c r="F434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>433</v>
       </c>
@@ -8091,8 +10698,14 @@
       <c r="D435">
         <v>0</v>
       </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E435">
+        <v>0</v>
+      </c>
+      <c r="F435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>434</v>
       </c>
@@ -8105,8 +10718,14 @@
       <c r="D436">
         <v>0</v>
       </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E436">
+        <v>0</v>
+      </c>
+      <c r="F436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>435</v>
       </c>
@@ -8119,8 +10738,14 @@
       <c r="D437">
         <v>0</v>
       </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E437">
+        <v>0</v>
+      </c>
+      <c r="F437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>436</v>
       </c>
@@ -8133,8 +10758,14 @@
       <c r="D438">
         <v>0</v>
       </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E438">
+        <v>0</v>
+      </c>
+      <c r="F438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>437</v>
       </c>
@@ -8147,8 +10778,14 @@
       <c r="D439">
         <v>0</v>
       </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E439">
+        <v>0</v>
+      </c>
+      <c r="F439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>438</v>
       </c>
@@ -8161,8 +10798,14 @@
       <c r="D440">
         <v>0</v>
       </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E440">
+        <v>0</v>
+      </c>
+      <c r="F440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>439</v>
       </c>
@@ -8175,8 +10818,14 @@
       <c r="D441">
         <v>0</v>
       </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E441">
+        <v>0</v>
+      </c>
+      <c r="F441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>440</v>
       </c>
@@ -8189,8 +10838,14 @@
       <c r="D442">
         <v>0</v>
       </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E442">
+        <v>0</v>
+      </c>
+      <c r="F442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>441</v>
       </c>
@@ -8203,8 +10858,14 @@
       <c r="D443">
         <v>0</v>
       </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E443">
+        <v>0</v>
+      </c>
+      <c r="F443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>442</v>
       </c>
@@ -8217,8 +10878,14 @@
       <c r="D444">
         <v>0</v>
       </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E444">
+        <v>0</v>
+      </c>
+      <c r="F444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>443</v>
       </c>
@@ -8231,8 +10898,14 @@
       <c r="D445">
         <v>0</v>
       </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E445">
+        <v>0</v>
+      </c>
+      <c r="F445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>444</v>
       </c>
@@ -8245,8 +10918,14 @@
       <c r="D446">
         <v>0</v>
       </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E446">
+        <v>0</v>
+      </c>
+      <c r="F446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>445</v>
       </c>
@@ -8259,8 +10938,14 @@
       <c r="D447">
         <v>0</v>
       </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E447">
+        <v>0</v>
+      </c>
+      <c r="F447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>446</v>
       </c>
@@ -8273,8 +10958,14 @@
       <c r="D448">
         <v>0</v>
       </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E448">
+        <v>0</v>
+      </c>
+      <c r="F448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>447</v>
       </c>
@@ -8287,8 +10978,14 @@
       <c r="D449">
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E449">
+        <v>0</v>
+      </c>
+      <c r="F449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>448</v>
       </c>
@@ -8301,8 +10998,14 @@
       <c r="D450">
         <v>0</v>
       </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E450">
+        <v>0</v>
+      </c>
+      <c r="F450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>449</v>
       </c>
@@ -8315,8 +11018,14 @@
       <c r="D451">
         <v>0</v>
       </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E451">
+        <v>0</v>
+      </c>
+      <c r="F451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>450</v>
       </c>
@@ -8329,8 +11038,14 @@
       <c r="D452">
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E452">
+        <v>0</v>
+      </c>
+      <c r="F452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>451</v>
       </c>
@@ -8343,8 +11058,14 @@
       <c r="D453">
         <v>0</v>
       </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E453">
+        <v>0</v>
+      </c>
+      <c r="F453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>452</v>
       </c>
@@ -8357,8 +11078,14 @@
       <c r="D454">
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E454">
+        <v>0</v>
+      </c>
+      <c r="F454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>453</v>
       </c>
@@ -8371,8 +11098,14 @@
       <c r="D455">
         <v>0</v>
       </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E455">
+        <v>0</v>
+      </c>
+      <c r="F455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>454</v>
       </c>
@@ -8385,8 +11118,14 @@
       <c r="D456">
         <v>0</v>
       </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E456">
+        <v>0</v>
+      </c>
+      <c r="F456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>455</v>
       </c>
@@ -8399,8 +11138,14 @@
       <c r="D457">
         <v>0</v>
       </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E457">
+        <v>0</v>
+      </c>
+      <c r="F457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>456</v>
       </c>
@@ -8413,8 +11158,14 @@
       <c r="D458">
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E458">
+        <v>0</v>
+      </c>
+      <c r="F458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>457</v>
       </c>
@@ -8427,8 +11178,14 @@
       <c r="D459">
         <v>0</v>
       </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E459">
+        <v>0</v>
+      </c>
+      <c r="F459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>458</v>
       </c>
@@ -8441,8 +11198,14 @@
       <c r="D460">
         <v>0</v>
       </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E460">
+        <v>0</v>
+      </c>
+      <c r="F460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>459</v>
       </c>
@@ -8455,8 +11218,14 @@
       <c r="D461">
         <v>0</v>
       </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E461">
+        <v>0</v>
+      </c>
+      <c r="F461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>460</v>
       </c>
@@ -8469,8 +11238,14 @@
       <c r="D462">
         <v>0</v>
       </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E462">
+        <v>0</v>
+      </c>
+      <c r="F462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>461</v>
       </c>
@@ -8483,8 +11258,14 @@
       <c r="D463">
         <v>0</v>
       </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E463">
+        <v>0</v>
+      </c>
+      <c r="F463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>462</v>
       </c>
@@ -8497,8 +11278,14 @@
       <c r="D464">
         <v>0</v>
       </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E464">
+        <v>0</v>
+      </c>
+      <c r="F464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>463</v>
       </c>
@@ -8511,8 +11298,14 @@
       <c r="D465">
         <v>0</v>
       </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E465">
+        <v>0</v>
+      </c>
+      <c r="F465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>464</v>
       </c>
@@ -8525,8 +11318,14 @@
       <c r="D466">
         <v>0</v>
       </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E466">
+        <v>0</v>
+      </c>
+      <c r="F466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>465</v>
       </c>
@@ -8539,8 +11338,14 @@
       <c r="D467">
         <v>0</v>
       </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E467">
+        <v>0</v>
+      </c>
+      <c r="F467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>466</v>
       </c>
@@ -8553,8 +11358,14 @@
       <c r="D468">
         <v>0</v>
       </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E468">
+        <v>0</v>
+      </c>
+      <c r="F468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>467</v>
       </c>
@@ -8567,8 +11378,14 @@
       <c r="D469">
         <v>0</v>
       </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E469">
+        <v>0</v>
+      </c>
+      <c r="F469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>468</v>
       </c>
@@ -8581,8 +11398,14 @@
       <c r="D470">
         <v>0</v>
       </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E470">
+        <v>0</v>
+      </c>
+      <c r="F470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>469</v>
       </c>
@@ -8595,8 +11418,14 @@
       <c r="D471">
         <v>0</v>
       </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E471">
+        <v>0</v>
+      </c>
+      <c r="F471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>470</v>
       </c>
@@ -8609,8 +11438,14 @@
       <c r="D472">
         <v>0</v>
       </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E472">
+        <v>0</v>
+      </c>
+      <c r="F472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>471</v>
       </c>
@@ -8623,8 +11458,14 @@
       <c r="D473">
         <v>0</v>
       </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E473">
+        <v>0</v>
+      </c>
+      <c r="F473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>472</v>
       </c>
@@ -8637,8 +11478,14 @@
       <c r="D474">
         <v>0</v>
       </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E474">
+        <v>0</v>
+      </c>
+      <c r="F474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>473</v>
       </c>
@@ -8651,8 +11498,14 @@
       <c r="D475">
         <v>0</v>
       </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E475">
+        <v>0</v>
+      </c>
+      <c r="F475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>474</v>
       </c>
@@ -8665,8 +11518,14 @@
       <c r="D476">
         <v>0</v>
       </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E476">
+        <v>0</v>
+      </c>
+      <c r="F476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>475</v>
       </c>
@@ -8679,8 +11538,14 @@
       <c r="D477">
         <v>0</v>
       </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E477">
+        <v>0</v>
+      </c>
+      <c r="F477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>476</v>
       </c>
@@ -8693,8 +11558,14 @@
       <c r="D478">
         <v>0</v>
       </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E478">
+        <v>0</v>
+      </c>
+      <c r="F478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>477</v>
       </c>
@@ -8707,8 +11578,14 @@
       <c r="D479">
         <v>0</v>
       </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E479">
+        <v>0</v>
+      </c>
+      <c r="F479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>478</v>
       </c>
@@ -8721,8 +11598,14 @@
       <c r="D480">
         <v>0</v>
       </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E480">
+        <v>0</v>
+      </c>
+      <c r="F480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>479</v>
       </c>
@@ -8735,8 +11618,14 @@
       <c r="D481">
         <v>0</v>
       </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E481">
+        <v>0</v>
+      </c>
+      <c r="F481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>480</v>
       </c>
@@ -8749,8 +11638,14 @@
       <c r="D482">
         <v>0</v>
       </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E482">
+        <v>0</v>
+      </c>
+      <c r="F482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>481</v>
       </c>
@@ -8763,8 +11658,14 @@
       <c r="D483">
         <v>0</v>
       </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E483">
+        <v>1</v>
+      </c>
+      <c r="F483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>482</v>
       </c>
@@ -8777,8 +11678,14 @@
       <c r="D484">
         <v>0</v>
       </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E484">
+        <v>0</v>
+      </c>
+      <c r="F484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>483</v>
       </c>
@@ -8791,8 +11698,14 @@
       <c r="D485">
         <v>0</v>
       </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E485">
+        <v>0</v>
+      </c>
+      <c r="F485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>484</v>
       </c>
@@ -8805,8 +11718,14 @@
       <c r="D486">
         <v>0</v>
       </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E486">
+        <v>0</v>
+      </c>
+      <c r="F486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>485</v>
       </c>
@@ -8819,8 +11738,14 @@
       <c r="D487">
         <v>0</v>
       </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E487">
+        <v>0</v>
+      </c>
+      <c r="F487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>486</v>
       </c>
@@ -8833,8 +11758,14 @@
       <c r="D488">
         <v>0</v>
       </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E488">
+        <v>0</v>
+      </c>
+      <c r="F488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>487</v>
       </c>
@@ -8847,8 +11778,14 @@
       <c r="D489">
         <v>0</v>
       </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E489">
+        <v>0</v>
+      </c>
+      <c r="F489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>488</v>
       </c>
@@ -8861,8 +11798,14 @@
       <c r="D490">
         <v>0</v>
       </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E490">
+        <v>0</v>
+      </c>
+      <c r="F490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>489</v>
       </c>
@@ -8875,8 +11818,14 @@
       <c r="D491">
         <v>0</v>
       </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E491">
+        <v>0</v>
+      </c>
+      <c r="F491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>490</v>
       </c>
@@ -8889,8 +11838,14 @@
       <c r="D492">
         <v>0</v>
       </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E492">
+        <v>0</v>
+      </c>
+      <c r="F492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>491</v>
       </c>
@@ -8903,8 +11858,14 @@
       <c r="D493">
         <v>0</v>
       </c>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E493">
+        <v>0</v>
+      </c>
+      <c r="F493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>492</v>
       </c>
@@ -8917,8 +11878,14 @@
       <c r="D494">
         <v>0</v>
       </c>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E494">
+        <v>0</v>
+      </c>
+      <c r="F494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>493</v>
       </c>
@@ -8931,8 +11898,14 @@
       <c r="D495">
         <v>0</v>
       </c>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E495">
+        <v>0</v>
+      </c>
+      <c r="F495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>494</v>
       </c>
@@ -8945,8 +11918,14 @@
       <c r="D496">
         <v>0</v>
       </c>
-    </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E496">
+        <v>0</v>
+      </c>
+      <c r="F496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>495</v>
       </c>
@@ -8959,8 +11938,14 @@
       <c r="D497">
         <v>0</v>
       </c>
-    </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E497">
+        <v>0</v>
+      </c>
+      <c r="F497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>496</v>
       </c>
@@ -8973,8 +11958,14 @@
       <c r="D498">
         <v>0</v>
       </c>
-    </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E498">
+        <v>0</v>
+      </c>
+      <c r="F498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>497</v>
       </c>
@@ -8987,8 +11978,14 @@
       <c r="D499">
         <v>0</v>
       </c>
-    </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E499">
+        <v>0</v>
+      </c>
+      <c r="F499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>498</v>
       </c>
@@ -9001,8 +11998,14 @@
       <c r="D500">
         <v>0</v>
       </c>
-    </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E500">
+        <v>0</v>
+      </c>
+      <c r="F500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>499</v>
       </c>
@@ -9015,8 +12018,14 @@
       <c r="D501">
         <v>0</v>
       </c>
-    </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E501">
+        <v>0</v>
+      </c>
+      <c r="F501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>500</v>
       </c>
@@ -9029,8 +12038,14 @@
       <c r="D502">
         <v>0</v>
       </c>
-    </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E502">
+        <v>0</v>
+      </c>
+      <c r="F502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>501</v>
       </c>
@@ -9043,8 +12058,14 @@
       <c r="D503">
         <v>0</v>
       </c>
-    </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E503">
+        <v>0</v>
+      </c>
+      <c r="F503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>502</v>
       </c>
@@ -9057,8 +12078,14 @@
       <c r="D504">
         <v>0</v>
       </c>
-    </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E504">
+        <v>0</v>
+      </c>
+      <c r="F504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>503</v>
       </c>
@@ -9071,8 +12098,14 @@
       <c r="D505">
         <v>0</v>
       </c>
-    </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E505">
+        <v>0</v>
+      </c>
+      <c r="F505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>504</v>
       </c>
@@ -9085,8 +12118,14 @@
       <c r="D506">
         <v>0</v>
       </c>
-    </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E506">
+        <v>0</v>
+      </c>
+      <c r="F506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>505</v>
       </c>
@@ -9099,8 +12138,14 @@
       <c r="D507">
         <v>0</v>
       </c>
-    </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E507">
+        <v>0</v>
+      </c>
+      <c r="F507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>506</v>
       </c>
@@ -9113,8 +12158,14 @@
       <c r="D508">
         <v>0</v>
       </c>
-    </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E508">
+        <v>0</v>
+      </c>
+      <c r="F508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>507</v>
       </c>
@@ -9127,8 +12178,14 @@
       <c r="D509">
         <v>0</v>
       </c>
-    </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E509">
+        <v>0</v>
+      </c>
+      <c r="F509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>508</v>
       </c>
@@ -9141,8 +12198,14 @@
       <c r="D510">
         <v>0</v>
       </c>
-    </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E510">
+        <v>0</v>
+      </c>
+      <c r="F510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>509</v>
       </c>
@@ -9155,8 +12218,14 @@
       <c r="D511">
         <v>0</v>
       </c>
-    </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E511">
+        <v>0</v>
+      </c>
+      <c r="F511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>510</v>
       </c>
@@ -9169,8 +12238,14 @@
       <c r="D512">
         <v>0</v>
       </c>
-    </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E512">
+        <v>0</v>
+      </c>
+      <c r="F512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>511</v>
       </c>
@@ -9183,8 +12258,14 @@
       <c r="D513">
         <v>0</v>
       </c>
-    </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E513">
+        <v>0</v>
+      </c>
+      <c r="F513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>512</v>
       </c>
@@ -9197,8 +12278,14 @@
       <c r="D514">
         <v>0</v>
       </c>
-    </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E514">
+        <v>0</v>
+      </c>
+      <c r="F514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>513</v>
       </c>
@@ -9211,8 +12298,14 @@
       <c r="D515">
         <v>0</v>
       </c>
-    </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E515">
+        <v>0</v>
+      </c>
+      <c r="F515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>514</v>
       </c>
@@ -9225,8 +12318,14 @@
       <c r="D516">
         <v>0</v>
       </c>
-    </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E516">
+        <v>0</v>
+      </c>
+      <c r="F516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>515</v>
       </c>
@@ -9239,8 +12338,14 @@
       <c r="D517">
         <v>0</v>
       </c>
-    </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E517">
+        <v>0</v>
+      </c>
+      <c r="F517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>516</v>
       </c>
@@ -9253,8 +12358,14 @@
       <c r="D518">
         <v>0</v>
       </c>
-    </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E518">
+        <v>0</v>
+      </c>
+      <c r="F518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>517</v>
       </c>
@@ -9267,8 +12378,14 @@
       <c r="D519">
         <v>0</v>
       </c>
-    </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E519">
+        <v>0</v>
+      </c>
+      <c r="F519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>518</v>
       </c>
@@ -9281,8 +12398,14 @@
       <c r="D520">
         <v>0</v>
       </c>
-    </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E520">
+        <v>0</v>
+      </c>
+      <c r="F520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>519</v>
       </c>
@@ -9295,8 +12418,14 @@
       <c r="D521">
         <v>0</v>
       </c>
-    </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E521">
+        <v>0</v>
+      </c>
+      <c r="F521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>520</v>
       </c>
@@ -9309,8 +12438,14 @@
       <c r="D522">
         <v>0</v>
       </c>
-    </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E522">
+        <v>0</v>
+      </c>
+      <c r="F522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>521</v>
       </c>
@@ -9323,8 +12458,14 @@
       <c r="D523">
         <v>0</v>
       </c>
-    </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E523">
+        <v>0</v>
+      </c>
+      <c r="F523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>522</v>
       </c>
@@ -9337,8 +12478,14 @@
       <c r="D524">
         <v>0</v>
       </c>
-    </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E524">
+        <v>0</v>
+      </c>
+      <c r="F524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>523</v>
       </c>
@@ -9351,8 +12498,14 @@
       <c r="D525">
         <v>0</v>
       </c>
-    </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E525">
+        <v>0</v>
+      </c>
+      <c r="F525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>524</v>
       </c>
@@ -9365,8 +12518,14 @@
       <c r="D526">
         <v>0</v>
       </c>
-    </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E526">
+        <v>0</v>
+      </c>
+      <c r="F526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>525</v>
       </c>
@@ -9379,8 +12538,14 @@
       <c r="D527">
         <v>0</v>
       </c>
-    </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E527">
+        <v>0</v>
+      </c>
+      <c r="F527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>526</v>
       </c>
@@ -9393,8 +12558,14 @@
       <c r="D528">
         <v>0</v>
       </c>
-    </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E528">
+        <v>0</v>
+      </c>
+      <c r="F528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>527</v>
       </c>
@@ -9407,8 +12578,14 @@
       <c r="D529">
         <v>0</v>
       </c>
-    </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E529">
+        <v>0</v>
+      </c>
+      <c r="F529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>528</v>
       </c>
@@ -9421,8 +12598,14 @@
       <c r="D530">
         <v>0</v>
       </c>
-    </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E530">
+        <v>0</v>
+      </c>
+      <c r="F530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>529</v>
       </c>
@@ -9435,8 +12618,14 @@
       <c r="D531">
         <v>0</v>
       </c>
-    </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E531">
+        <v>0</v>
+      </c>
+      <c r="F531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>530</v>
       </c>
@@ -9449,8 +12638,14 @@
       <c r="D532">
         <v>0</v>
       </c>
-    </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E532">
+        <v>0</v>
+      </c>
+      <c r="F532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>531</v>
       </c>
@@ -9463,8 +12658,14 @@
       <c r="D533">
         <v>0</v>
       </c>
-    </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E533">
+        <v>0</v>
+      </c>
+      <c r="F533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>532</v>
       </c>
@@ -9477,8 +12678,14 @@
       <c r="D534">
         <v>0</v>
       </c>
-    </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E534">
+        <v>0</v>
+      </c>
+      <c r="F534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>533</v>
       </c>
@@ -9491,8 +12698,14 @@
       <c r="D535">
         <v>0</v>
       </c>
-    </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E535">
+        <v>0</v>
+      </c>
+      <c r="F535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>534</v>
       </c>
@@ -9505,8 +12718,14 @@
       <c r="D536">
         <v>0</v>
       </c>
-    </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E536">
+        <v>0</v>
+      </c>
+      <c r="F536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>535</v>
       </c>
@@ -9519,8 +12738,14 @@
       <c r="D537">
         <v>0</v>
       </c>
-    </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E537">
+        <v>0</v>
+      </c>
+      <c r="F537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>536</v>
       </c>
@@ -9533,8 +12758,14 @@
       <c r="D538">
         <v>0</v>
       </c>
-    </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E538">
+        <v>0</v>
+      </c>
+      <c r="F538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>537</v>
       </c>
@@ -9547,8 +12778,14 @@
       <c r="D539">
         <v>0</v>
       </c>
-    </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E539">
+        <v>0</v>
+      </c>
+      <c r="F539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>538</v>
       </c>
@@ -9561,8 +12798,14 @@
       <c r="D540">
         <v>0</v>
       </c>
-    </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E540">
+        <v>0</v>
+      </c>
+      <c r="F540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>539</v>
       </c>
@@ -9575,8 +12818,14 @@
       <c r="D541">
         <v>0</v>
       </c>
-    </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E541">
+        <v>0</v>
+      </c>
+      <c r="F541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>540</v>
       </c>
@@ -9589,8 +12838,14 @@
       <c r="D542">
         <v>0</v>
       </c>
-    </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E542">
+        <v>0</v>
+      </c>
+      <c r="F542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>541</v>
       </c>
@@ -9603,8 +12858,14 @@
       <c r="D543">
         <v>0</v>
       </c>
-    </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E543">
+        <v>0</v>
+      </c>
+      <c r="F543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>542</v>
       </c>
@@ -9617,8 +12878,14 @@
       <c r="D544">
         <v>0</v>
       </c>
-    </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E544">
+        <v>0</v>
+      </c>
+      <c r="F544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>543</v>
       </c>
@@ -9631,8 +12898,14 @@
       <c r="D545">
         <v>0</v>
       </c>
-    </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E545">
+        <v>0</v>
+      </c>
+      <c r="F545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>544</v>
       </c>
@@ -9645,8 +12918,14 @@
       <c r="D546">
         <v>0</v>
       </c>
-    </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E546">
+        <v>0</v>
+      </c>
+      <c r="F546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>545</v>
       </c>
@@ -9659,8 +12938,14 @@
       <c r="D547">
         <v>0</v>
       </c>
-    </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E547">
+        <v>0</v>
+      </c>
+      <c r="F547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>546</v>
       </c>
@@ -9673,8 +12958,14 @@
       <c r="D548">
         <v>0</v>
       </c>
-    </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E548">
+        <v>0</v>
+      </c>
+      <c r="F548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>547</v>
       </c>
@@ -9687,45 +12978,111 @@
       <c r="D549">
         <v>0</v>
       </c>
-    </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E549">
+        <v>0</v>
+      </c>
+      <c r="F549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>548</v>
       </c>
       <c r="B550">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C550">
+        <v>0</v>
+      </c>
+      <c r="D550">
+        <v>0</v>
+      </c>
+      <c r="E550">
+        <v>0</v>
+      </c>
+      <c r="F550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>549</v>
       </c>
       <c r="B551">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C551">
+        <v>0</v>
+      </c>
+      <c r="D551">
+        <v>0</v>
+      </c>
+      <c r="E551">
+        <v>0</v>
+      </c>
+      <c r="F551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>550</v>
       </c>
       <c r="B552">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C552">
+        <v>0</v>
+      </c>
+      <c r="D552">
+        <v>0</v>
+      </c>
+      <c r="E552">
+        <v>0</v>
+      </c>
+      <c r="F552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>551</v>
       </c>
       <c r="B553">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C553">
+        <v>0</v>
+      </c>
+      <c r="D553">
+        <v>0</v>
+      </c>
+      <c r="E553">
+        <v>0</v>
+      </c>
+      <c r="F553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>552</v>
       </c>
       <c r="B554">
         <v>0.45834999999999998</v>
+      </c>
+      <c r="C554">
+        <v>0</v>
+      </c>
+      <c r="D554">
+        <v>0</v>
+      </c>
+      <c r="E554">
+        <v>0</v>
+      </c>
+      <c r="F554">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
